--- a/data/Datasets/dataset_complete_cluster.xlsx
+++ b/data/Datasets/dataset_complete_cluster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAED504F-4CEE-4954-B511-D93436D6E490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCA722C-80E0-458D-BB77-795A20FA733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2103" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="221">
   <si>
     <t>car_ID</t>
   </si>
@@ -155,6 +155,9 @@
     <t>mpfi</t>
   </si>
   <si>
+    <t>No Segment</t>
+  </si>
+  <si>
     <t>alfa-romero stelvio</t>
   </si>
   <si>
@@ -170,6 +173,9 @@
     <t>six</t>
   </si>
   <si>
+    <t>Regular I</t>
+  </si>
+  <si>
     <t>audi 100 ls</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
     <t>ohc</t>
   </si>
   <si>
+    <t>Regular II</t>
+  </si>
+  <si>
     <t>audi 100ls</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
     <t>five</t>
   </si>
   <si>
+    <t>Luxury</t>
+  </si>
+  <si>
     <t>audi fox</t>
   </si>
   <si>
@@ -198,6 +210,9 @@
   </si>
   <si>
     <t>wagon</t>
+  </si>
+  <si>
+    <t>Business</t>
   </si>
   <si>
     <t>audi 4000</t>
@@ -1356,8 +1371,8 @@
       <c r="AE2" s="2">
         <v>88046</v>
       </c>
-      <c r="AF2">
-        <v>3</v>
+      <c r="AF2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -1368,7 +1383,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
@@ -1454,8 +1469,8 @@
       <c r="AE3" s="3">
         <v>42308</v>
       </c>
-      <c r="AF3">
-        <v>3</v>
+      <c r="AF3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1466,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
@@ -1478,7 +1493,7 @@
         <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -1502,10 +1517,10 @@
         <v>2823</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q4">
         <v>152</v>
@@ -1552,8 +1567,8 @@
       <c r="AE4" s="3">
         <v>41740</v>
       </c>
-      <c r="AF4">
-        <v>0</v>
+      <c r="AF4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1564,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>33</v>
@@ -1576,10 +1591,10 @@
         <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I5" t="s">
         <v>38</v>
@@ -1600,7 +1615,7 @@
         <v>2337</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s">
         <v>40</v>
@@ -1650,8 +1665,8 @@
       <c r="AE5" s="3">
         <v>0</v>
       </c>
-      <c r="AF5">
-        <v>1</v>
+      <c r="AF5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1662,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
@@ -1674,10 +1689,10 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I6" t="s">
         <v>38</v>
@@ -1698,10 +1713,10 @@
         <v>2824</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q6">
         <v>136</v>
@@ -1748,8 +1763,8 @@
       <c r="AE6" s="3">
         <v>0</v>
       </c>
-      <c r="AF6">
-        <v>4</v>
+      <c r="AF6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1760,7 +1775,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>33</v>
@@ -1772,10 +1787,10 @@
         <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
@@ -1796,10 +1811,10 @@
         <v>2507</v>
       </c>
       <c r="O7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q7">
         <v>136</v>
@@ -1846,8 +1861,8 @@
       <c r="AE7" s="3">
         <v>0</v>
       </c>
-      <c r="AF7">
-        <v>1</v>
+      <c r="AF7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1858,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
@@ -1870,10 +1885,10 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
@@ -1894,10 +1909,10 @@
         <v>2844</v>
       </c>
       <c r="O8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q8">
         <v>136</v>
@@ -1944,8 +1959,8 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-      <c r="AF8">
-        <v>1</v>
+      <c r="AF8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1956,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -1968,10 +1983,10 @@
         <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
@@ -1992,10 +2007,10 @@
         <v>2954</v>
       </c>
       <c r="O9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q9">
         <v>136</v>
@@ -2042,8 +2057,8 @@
       <c r="AE9" s="3">
         <v>0</v>
       </c>
-      <c r="AF9">
-        <v>2</v>
+      <c r="AF9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -2054,22 +2069,22 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D10" t="s">
         <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
         <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I10" t="s">
         <v>38</v>
@@ -2090,10 +2105,10 @@
         <v>3086</v>
       </c>
       <c r="O10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q10">
         <v>131</v>
@@ -2140,8 +2155,8 @@
       <c r="AE10" s="3">
         <v>0</v>
       </c>
-      <c r="AF10">
-        <v>4</v>
+      <c r="AF10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -2152,22 +2167,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D11" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I11" t="s">
         <v>38</v>
@@ -2188,10 +2203,10 @@
         <v>3053</v>
       </c>
       <c r="O11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q11">
         <v>131</v>
@@ -2238,8 +2253,8 @@
       <c r="AE11" s="3">
         <v>0</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
+      <c r="AF11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -2250,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -2262,7 +2277,7 @@
         <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s">
         <v>37</v>
@@ -2286,7 +2301,7 @@
         <v>2395</v>
       </c>
       <c r="O12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s">
         <v>40</v>
@@ -2336,8 +2351,8 @@
       <c r="AE12" s="3">
         <v>463106</v>
       </c>
-      <c r="AF12">
-        <v>1</v>
+      <c r="AF12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -2348,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
         <v>33</v>
@@ -2360,7 +2375,7 @@
         <v>40</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s">
         <v>37</v>
@@ -2384,7 +2399,7 @@
         <v>2395</v>
       </c>
       <c r="O13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s">
         <v>40</v>
@@ -2434,8 +2449,8 @@
       <c r="AE13" s="3">
         <v>463106</v>
       </c>
-      <c r="AF13">
-        <v>1</v>
+      <c r="AF13" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:32">
@@ -2446,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>33</v>
@@ -2458,7 +2473,7 @@
         <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s">
         <v>37</v>
@@ -2482,10 +2497,10 @@
         <v>2710</v>
       </c>
       <c r="O14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>164</v>
@@ -2532,8 +2547,8 @@
       <c r="AE14" s="3">
         <v>395238</v>
       </c>
-      <c r="AF14">
-        <v>4</v>
+      <c r="AF14" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:32">
@@ -2544,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D15" t="s">
         <v>33</v>
@@ -2556,7 +2571,7 @@
         <v>40</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H15" t="s">
         <v>37</v>
@@ -2580,10 +2595,10 @@
         <v>2765</v>
       </c>
       <c r="O15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q15">
         <v>164</v>
@@ -2630,8 +2645,8 @@
       <c r="AE15" s="3">
         <v>287882</v>
       </c>
-      <c r="AF15">
-        <v>4</v>
+      <c r="AF15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:32">
@@ -2642,7 +2657,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
         <v>33</v>
@@ -2654,7 +2669,7 @@
         <v>40</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s">
         <v>37</v>
@@ -2678,10 +2693,10 @@
         <v>3055</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q16">
         <v>164</v>
@@ -2728,8 +2743,8 @@
       <c r="AE16" s="3">
         <v>25691</v>
       </c>
-      <c r="AF16">
-        <v>4</v>
+      <c r="AF16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:32">
@@ -2740,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>33</v>
@@ -2752,7 +2767,7 @@
         <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s">
         <v>37</v>
@@ -2776,10 +2791,10 @@
         <v>3230</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q17">
         <v>209</v>
@@ -2826,8 +2841,8 @@
       <c r="AE17" s="3">
         <v>76509</v>
       </c>
-      <c r="AF17">
-        <v>4</v>
+      <c r="AF17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -2838,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>33</v>
@@ -2850,7 +2865,7 @@
         <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s">
         <v>37</v>
@@ -2874,10 +2889,10 @@
         <v>3380</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>209</v>
@@ -2924,8 +2939,8 @@
       <c r="AE18" s="3">
         <v>159419</v>
       </c>
-      <c r="AF18">
-        <v>4</v>
+      <c r="AF18" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:32">
@@ -2936,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
         <v>33</v>
@@ -2948,7 +2963,7 @@
         <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s">
         <v>37</v>
@@ -2972,10 +2987,10 @@
         <v>3505</v>
       </c>
       <c r="O19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q19">
         <v>209</v>
@@ -3022,8 +3037,8 @@
       <c r="AE19" s="3">
         <v>287882</v>
       </c>
-      <c r="AF19">
-        <v>4</v>
+      <c r="AF19" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:32">
@@ -3034,7 +3049,7 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -3046,10 +3061,10 @@
         <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s">
         <v>38</v>
@@ -3070,16 +3085,16 @@
         <v>1488</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P20" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="Q20">
         <v>61</v>
       </c>
       <c r="R20" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S20">
         <v>2.91</v>
@@ -3120,8 +3135,8 @@
       <c r="AE20" s="3">
         <v>112226</v>
       </c>
-      <c r="AF20">
-        <v>0</v>
+      <c r="AF20" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:32">
@@ -3132,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>33</v>
@@ -3144,10 +3159,10 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I21" t="s">
         <v>38</v>
@@ -3168,7 +3183,7 @@
         <v>1874</v>
       </c>
       <c r="O21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P21" t="s">
         <v>40</v>
@@ -3177,7 +3192,7 @@
         <v>90</v>
       </c>
       <c r="R21" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S21">
         <v>3.03</v>
@@ -3218,8 +3233,8 @@
       <c r="AE21" s="3">
         <v>0</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
+      <c r="AF21" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:32">
@@ -3230,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D22" t="s">
         <v>33</v>
@@ -3242,10 +3257,10 @@
         <v>40</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s">
         <v>38</v>
@@ -3266,7 +3281,7 @@
         <v>1909</v>
       </c>
       <c r="O22" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" t="s">
         <v>40</v>
@@ -3275,7 +3290,7 @@
         <v>90</v>
       </c>
       <c r="R22" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S22">
         <v>3.03</v>
@@ -3316,8 +3331,8 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-      <c r="AF22">
-        <v>1</v>
+      <c r="AF22" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:32">
@@ -3328,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>33</v>
@@ -3340,10 +3355,10 @@
         <v>35</v>
       </c>
       <c r="G23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I23" t="s">
         <v>38</v>
@@ -3364,7 +3379,7 @@
         <v>1876</v>
       </c>
       <c r="O23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s">
         <v>40</v>
@@ -3373,7 +3388,7 @@
         <v>90</v>
       </c>
       <c r="R23" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S23">
         <v>2.97</v>
@@ -3414,8 +3429,8 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-      <c r="AF23">
-        <v>0</v>
+      <c r="AF23" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:32">
@@ -3426,7 +3441,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
         <v>33</v>
@@ -3438,10 +3453,10 @@
         <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s">
         <v>38</v>
@@ -3462,7 +3477,7 @@
         <v>1876</v>
       </c>
       <c r="O24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s">
         <v>40</v>
@@ -3471,7 +3486,7 @@
         <v>90</v>
       </c>
       <c r="R24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S24">
         <v>2.97</v>
@@ -3512,8 +3527,8 @@
       <c r="AE24" s="3">
         <v>235022</v>
       </c>
-      <c r="AF24">
-        <v>0</v>
+      <c r="AF24" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:32">
@@ -3524,22 +3539,22 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F25" t="s">
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s">
         <v>38</v>
@@ -3560,7 +3575,7 @@
         <v>2128</v>
       </c>
       <c r="O25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P25" t="s">
         <v>40</v>
@@ -3610,8 +3625,8 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-      <c r="AF25">
-        <v>0</v>
+      <c r="AF25" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:32">
@@ -3622,7 +3637,7 @@
         <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
         <v>33</v>
@@ -3634,10 +3649,10 @@
         <v>40</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s">
         <v>38</v>
@@ -3658,7 +3673,7 @@
         <v>1967</v>
       </c>
       <c r="O26" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P26" t="s">
         <v>40</v>
@@ -3667,7 +3682,7 @@
         <v>90</v>
       </c>
       <c r="R26" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S26">
         <v>2.97</v>
@@ -3708,8 +3723,8 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-      <c r="AF26">
-        <v>0</v>
+      <c r="AF26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:32">
@@ -3720,7 +3735,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
         <v>33</v>
@@ -3732,10 +3747,10 @@
         <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s">
         <v>38</v>
@@ -3756,7 +3771,7 @@
         <v>1989</v>
       </c>
       <c r="O27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s">
         <v>40</v>
@@ -3765,7 +3780,7 @@
         <v>90</v>
       </c>
       <c r="R27" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S27">
         <v>2.97</v>
@@ -3806,8 +3821,8 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-      <c r="AF27">
-        <v>1</v>
+      <c r="AF27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:32">
@@ -3818,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D28" t="s">
         <v>33</v>
@@ -3830,10 +3845,10 @@
         <v>40</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s">
         <v>38</v>
@@ -3854,7 +3869,7 @@
         <v>1989</v>
       </c>
       <c r="O28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P28" t="s">
         <v>40</v>
@@ -3863,7 +3878,7 @@
         <v>90</v>
       </c>
       <c r="R28" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S28">
         <v>2.97</v>
@@ -3904,8 +3919,8 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-      <c r="AF28">
-        <v>1</v>
+      <c r="AF28" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:32">
@@ -3916,22 +3931,22 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>35</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s">
         <v>38</v>
@@ -3952,7 +3967,7 @@
         <v>2191</v>
       </c>
       <c r="O29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P29" t="s">
         <v>40</v>
@@ -4002,8 +4017,8 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-      <c r="AF29">
-        <v>1</v>
+      <c r="AF29" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:32">
@@ -4014,7 +4029,7 @@
         <v>-1</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
         <v>33</v>
@@ -4026,10 +4041,10 @@
         <v>40</v>
       </c>
       <c r="G30" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I30" t="s">
         <v>38</v>
@@ -4050,7 +4065,7 @@
         <v>2535</v>
       </c>
       <c r="O30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P30" t="s">
         <v>40</v>
@@ -4059,7 +4074,7 @@
         <v>122</v>
       </c>
       <c r="R30" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S30">
         <v>3.34</v>
@@ -4100,8 +4115,8 @@
       <c r="AE30" s="3">
         <v>421</v>
       </c>
-      <c r="AF30">
-        <v>2</v>
+      <c r="AF30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:32">
@@ -4112,22 +4127,22 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s">
         <v>38</v>
@@ -4148,7 +4163,7 @@
         <v>2811</v>
       </c>
       <c r="O31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P31" t="s">
         <v>40</v>
@@ -4157,7 +4172,7 @@
         <v>156</v>
       </c>
       <c r="R31" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="S31">
         <v>3.6</v>
@@ -4198,8 +4213,8 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-      <c r="AF31">
-        <v>0</v>
+      <c r="AF31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:32">
@@ -4210,7 +4225,7 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
         <v>33</v>
@@ -4222,10 +4237,10 @@
         <v>35</v>
       </c>
       <c r="G32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s">
         <v>38</v>
@@ -4246,7 +4261,7 @@
         <v>1713</v>
       </c>
       <c r="O32" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s">
         <v>40</v>
@@ -4255,7 +4270,7 @@
         <v>92</v>
       </c>
       <c r="R32" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S32">
         <v>2.91</v>
@@ -4296,8 +4311,8 @@
       <c r="AE32" s="3">
         <v>1176432</v>
       </c>
-      <c r="AF32">
-        <v>0</v>
+      <c r="AF32" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="33.75">
@@ -4308,7 +4323,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
         <v>33</v>
@@ -4320,10 +4335,10 @@
         <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I33" t="s">
         <v>38</v>
@@ -4344,7 +4359,7 @@
         <v>1819</v>
       </c>
       <c r="O33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s">
         <v>40</v>
@@ -4353,7 +4368,7 @@
         <v>92</v>
       </c>
       <c r="R33" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S33">
         <v>2.91</v>
@@ -4380,10 +4395,10 @@
         <v>6855</v>
       </c>
       <c r="AE33" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="33.75">
@@ -4394,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
         <v>33</v>
@@ -4406,10 +4421,10 @@
         <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I34" t="s">
         <v>38</v>
@@ -4430,7 +4445,7 @@
         <v>1837</v>
       </c>
       <c r="O34" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P34" t="s">
         <v>40</v>
@@ -4439,7 +4454,7 @@
         <v>79</v>
       </c>
       <c r="R34" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S34">
         <v>2.91</v>
@@ -4466,10 +4481,10 @@
         <v>5399</v>
       </c>
       <c r="AE34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:32">
@@ -4480,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4492,10 +4507,10 @@
         <v>35</v>
       </c>
       <c r="G35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I35" t="s">
         <v>38</v>
@@ -4516,7 +4531,7 @@
         <v>1940</v>
       </c>
       <c r="O35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P35" t="s">
         <v>40</v>
@@ -4525,7 +4540,7 @@
         <v>92</v>
       </c>
       <c r="R35" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S35">
         <v>2.91</v>
@@ -4566,8 +4581,8 @@
       <c r="AE35" s="3">
         <v>21</v>
       </c>
-      <c r="AF35">
-        <v>0</v>
+      <c r="AF35" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="33.75">
@@ -4578,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
         <v>33</v>
@@ -4590,10 +4605,10 @@
         <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I36" t="s">
         <v>38</v>
@@ -4614,7 +4629,7 @@
         <v>1956</v>
       </c>
       <c r="O36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s">
         <v>40</v>
@@ -4623,7 +4638,7 @@
         <v>92</v>
       </c>
       <c r="R36" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S36">
         <v>2.91</v>
@@ -4650,10 +4665,10 @@
         <v>7129</v>
       </c>
       <c r="AE36" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF36">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF36" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:32">
@@ -4664,7 +4679,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -4676,10 +4691,10 @@
         <v>40</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s">
         <v>38</v>
@@ -4700,7 +4715,7 @@
         <v>2010</v>
       </c>
       <c r="O37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P37" t="s">
         <v>40</v>
@@ -4709,7 +4724,7 @@
         <v>92</v>
       </c>
       <c r="R37" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S37">
         <v>2.91</v>
@@ -4750,8 +4765,8 @@
       <c r="AE37" s="3">
         <v>961408</v>
       </c>
-      <c r="AF37">
-        <v>1</v>
+      <c r="AF37" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="33.75">
@@ -4762,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -4774,10 +4789,10 @@
         <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s">
         <v>38</v>
@@ -4798,7 +4813,7 @@
         <v>2024</v>
       </c>
       <c r="O38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P38" t="s">
         <v>40</v>
@@ -4807,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="R38" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S38">
         <v>2.92</v>
@@ -4834,10 +4849,10 @@
         <v>7295</v>
       </c>
       <c r="AE38" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF38">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:32" ht="33.75">
@@ -4848,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -4860,10 +4875,10 @@
         <v>35</v>
       </c>
       <c r="G39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s">
         <v>38</v>
@@ -4884,7 +4899,7 @@
         <v>2236</v>
       </c>
       <c r="O39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P39" t="s">
         <v>40</v>
@@ -4893,7 +4908,7 @@
         <v>110</v>
       </c>
       <c r="R39" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S39">
         <v>3.15</v>
@@ -4920,10 +4935,10 @@
         <v>7895</v>
       </c>
       <c r="AE39" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:32" ht="33.75">
@@ -4934,7 +4949,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -4946,10 +4961,10 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s">
         <v>38</v>
@@ -4970,7 +4985,7 @@
         <v>2289</v>
       </c>
       <c r="O40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P40" t="s">
         <v>40</v>
@@ -4979,7 +4994,7 @@
         <v>110</v>
       </c>
       <c r="R40" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S40">
         <v>3.15</v>
@@ -5006,10 +5021,10 @@
         <v>9095</v>
       </c>
       <c r="AE40" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF40">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF40" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:32">
@@ -5020,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -5032,10 +5047,10 @@
         <v>40</v>
       </c>
       <c r="G41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s">
         <v>38</v>
@@ -5056,7 +5071,7 @@
         <v>2304</v>
       </c>
       <c r="O41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s">
         <v>40</v>
@@ -5065,7 +5080,7 @@
         <v>110</v>
       </c>
       <c r="R41" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S41">
         <v>3.15</v>
@@ -5106,8 +5121,8 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-      <c r="AF41">
-        <v>1</v>
+      <c r="AF41" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:32" ht="33.75">
@@ -5118,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -5130,10 +5145,10 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I42" t="s">
         <v>38</v>
@@ -5154,7 +5169,7 @@
         <v>2372</v>
       </c>
       <c r="O42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P42" t="s">
         <v>40</v>
@@ -5163,7 +5178,7 @@
         <v>110</v>
       </c>
       <c r="R42" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="S42">
         <v>3.15</v>
@@ -5190,10 +5205,10 @@
         <v>10295</v>
       </c>
       <c r="AE42" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF42">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AF42" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:32" ht="33.75">
@@ -5204,7 +5219,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
         <v>33</v>
@@ -5216,10 +5231,10 @@
         <v>40</v>
       </c>
       <c r="G43" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I43" t="s">
         <v>38</v>
@@ -5240,7 +5255,7 @@
         <v>2465</v>
       </c>
       <c r="O43" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P43" t="s">
         <v>40</v>
@@ -5276,10 +5291,10 @@
         <v>12945</v>
       </c>
       <c r="AE43" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF43">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AF43" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:32">
@@ -5290,7 +5305,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -5302,10 +5317,10 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I44" t="s">
         <v>38</v>
@@ -5326,7 +5341,7 @@
         <v>2293</v>
       </c>
       <c r="O44" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P44" t="s">
         <v>40</v>
@@ -5335,7 +5350,7 @@
         <v>110</v>
       </c>
       <c r="R44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S44">
         <v>3.15</v>
@@ -5376,8 +5391,8 @@
       <c r="AE44" s="3">
         <v>112441</v>
       </c>
-      <c r="AF44">
-        <v>1</v>
+      <c r="AF44" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:32">
@@ -5388,7 +5403,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -5400,7 +5415,7 @@
         <v>40</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s">
         <v>37</v>
@@ -5424,7 +5439,7 @@
         <v>2337</v>
       </c>
       <c r="O45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P45" t="s">
         <v>40</v>
@@ -5433,7 +5448,7 @@
         <v>111</v>
       </c>
       <c r="R45" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S45">
         <v>3.31</v>
@@ -5474,8 +5489,8 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-      <c r="AF45">
-        <v>1</v>
+      <c r="AF45" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:32">
@@ -5486,7 +5501,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -5498,10 +5513,10 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I46" t="s">
         <v>38</v>
@@ -5522,7 +5537,7 @@
         <v>1874</v>
       </c>
       <c r="O46" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P46" t="s">
         <v>40</v>
@@ -5531,7 +5546,7 @@
         <v>90</v>
       </c>
       <c r="R46" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S46">
         <v>3.03</v>
@@ -5572,8 +5587,8 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-      <c r="AF46">
-        <v>1</v>
+      <c r="AF46" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:32">
@@ -5584,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
@@ -5596,10 +5611,10 @@
         <v>40</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s">
         <v>38</v>
@@ -5620,7 +5635,7 @@
         <v>1909</v>
       </c>
       <c r="O47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P47" t="s">
         <v>40</v>
@@ -5629,7 +5644,7 @@
         <v>90</v>
       </c>
       <c r="R47" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S47">
         <v>3.03</v>
@@ -5670,8 +5685,8 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-      <c r="AF47">
-        <v>1</v>
+      <c r="AF47" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:32">
@@ -5682,7 +5697,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
@@ -5694,7 +5709,7 @@
         <v>35</v>
       </c>
       <c r="G48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
         <v>37</v>
@@ -5718,7 +5733,7 @@
         <v>2734</v>
       </c>
       <c r="O48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P48" t="s">
         <v>40</v>
@@ -5727,7 +5742,7 @@
         <v>119</v>
       </c>
       <c r="R48" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="S48">
         <v>3.43</v>
@@ -5768,8 +5783,8 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-      <c r="AF48">
-        <v>0</v>
+      <c r="AF48" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="1:32">
@@ -5780,7 +5795,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
@@ -5792,7 +5807,7 @@
         <v>40</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s">
         <v>37</v>
@@ -5819,7 +5834,7 @@
         <v>39</v>
       </c>
       <c r="P49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q49">
         <v>258</v>
@@ -5866,8 +5881,8 @@
       <c r="AE49" s="3">
         <v>3787</v>
       </c>
-      <c r="AF49">
-        <v>4</v>
+      <c r="AF49" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:32">
@@ -5878,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -5890,7 +5905,7 @@
         <v>40</v>
       </c>
       <c r="G50" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s">
         <v>37</v>
@@ -5917,7 +5932,7 @@
         <v>39</v>
       </c>
       <c r="P50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q50">
         <v>258</v>
@@ -5964,8 +5979,8 @@
       <c r="AE50" s="3">
         <v>5238</v>
       </c>
-      <c r="AF50">
-        <v>4</v>
+      <c r="AF50" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:32">
@@ -5976,7 +5991,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
@@ -5988,7 +6003,7 @@
         <v>35</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s">
         <v>37</v>
@@ -6012,10 +6027,10 @@
         <v>3950</v>
       </c>
       <c r="O51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P51" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="Q51">
         <v>326</v>
@@ -6062,8 +6077,8 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-      <c r="AF51">
-        <v>4</v>
+      <c r="AF51" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:32">
@@ -6074,7 +6089,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -6086,10 +6101,10 @@
         <v>35</v>
       </c>
       <c r="G52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I52" t="s">
         <v>38</v>
@@ -6110,7 +6125,7 @@
         <v>1890</v>
       </c>
       <c r="O52" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P52" t="s">
         <v>40</v>
@@ -6119,7 +6134,7 @@
         <v>91</v>
       </c>
       <c r="R52" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S52">
         <v>3.03</v>
@@ -6160,8 +6175,8 @@
       <c r="AE52" s="3">
         <v>117651</v>
       </c>
-      <c r="AF52">
-        <v>0</v>
+      <c r="AF52" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:32">
@@ -6172,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -6184,10 +6199,10 @@
         <v>35</v>
       </c>
       <c r="G53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s">
         <v>38</v>
@@ -6208,7 +6223,7 @@
         <v>1900</v>
       </c>
       <c r="O53" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P53" t="s">
         <v>40</v>
@@ -6217,7 +6232,7 @@
         <v>91</v>
       </c>
       <c r="R53" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S53">
         <v>3.03</v>
@@ -6258,8 +6273,8 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-      <c r="AF53">
-        <v>0</v>
+      <c r="AF53" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:32">
@@ -6270,7 +6285,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
@@ -6282,10 +6297,10 @@
         <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s">
         <v>38</v>
@@ -6306,7 +6321,7 @@
         <v>1905</v>
       </c>
       <c r="O54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P54" t="s">
         <v>40</v>
@@ -6315,7 +6330,7 @@
         <v>91</v>
       </c>
       <c r="R54" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S54">
         <v>3.03</v>
@@ -6356,8 +6371,8 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-      <c r="AF54">
-        <v>0</v>
+      <c r="AF54" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:32">
@@ -6368,7 +6383,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -6380,10 +6395,10 @@
         <v>40</v>
       </c>
       <c r="G55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s">
         <v>38</v>
@@ -6404,7 +6419,7 @@
         <v>1945</v>
       </c>
       <c r="O55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P55" t="s">
         <v>40</v>
@@ -6413,7 +6428,7 @@
         <v>91</v>
       </c>
       <c r="R55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S55">
         <v>3.03</v>
@@ -6454,8 +6469,8 @@
       <c r="AE55" s="3">
         <v>178974</v>
       </c>
-      <c r="AF55">
-        <v>1</v>
+      <c r="AF55" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:32">
@@ -6466,7 +6481,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
@@ -6478,10 +6493,10 @@
         <v>40</v>
       </c>
       <c r="G56" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I56" t="s">
         <v>38</v>
@@ -6502,7 +6517,7 @@
         <v>1950</v>
       </c>
       <c r="O56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P56" t="s">
         <v>40</v>
@@ -6511,7 +6526,7 @@
         <v>91</v>
       </c>
       <c r="R56" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S56">
         <v>3.08</v>
@@ -6552,8 +6567,8 @@
       <c r="AE56" s="3">
         <v>0</v>
       </c>
-      <c r="AF56">
-        <v>1</v>
+      <c r="AF56" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:32">
@@ -6564,7 +6579,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -6576,7 +6591,7 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
         <v>37</v>
@@ -6600,7 +6615,7 @@
         <v>2380</v>
       </c>
       <c r="O57" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P57" t="s">
         <v>35</v>
@@ -6609,7 +6624,7 @@
         <v>70</v>
       </c>
       <c r="R57" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="S57">
         <v>3.33</v>
@@ -6650,8 +6665,8 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-      <c r="AF57">
-        <v>0</v>
+      <c r="AF57" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:32" ht="33.75">
@@ -6662,7 +6677,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
@@ -6674,7 +6689,7 @@
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
         <v>37</v>
@@ -6698,7 +6713,7 @@
         <v>2380</v>
       </c>
       <c r="O58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P58" t="s">
         <v>35</v>
@@ -6707,7 +6722,7 @@
         <v>70</v>
       </c>
       <c r="R58" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="S58">
         <v>3.33</v>
@@ -6734,10 +6749,10 @@
         <v>11845</v>
       </c>
       <c r="AE58" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF58">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:32">
@@ -6748,7 +6763,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -6760,7 +6775,7 @@
         <v>35</v>
       </c>
       <c r="G59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
         <v>37</v>
@@ -6784,7 +6799,7 @@
         <v>2385</v>
       </c>
       <c r="O59" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
@@ -6793,7 +6808,7 @@
         <v>70</v>
       </c>
       <c r="R59" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="S59">
         <v>3.33</v>
@@ -6834,8 +6849,8 @@
       <c r="AE59" s="3">
         <v>0</v>
       </c>
-      <c r="AF59">
-        <v>0</v>
+      <c r="AF59" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:32">
@@ -6846,7 +6861,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
@@ -6858,7 +6873,7 @@
         <v>35</v>
       </c>
       <c r="G60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
         <v>37</v>
@@ -6882,7 +6897,7 @@
         <v>2500</v>
       </c>
       <c r="O60" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
@@ -6932,8 +6947,8 @@
       <c r="AE60" s="3">
         <v>0</v>
       </c>
-      <c r="AF60">
-        <v>0</v>
+      <c r="AF60" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:32">
@@ -6944,7 +6959,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
@@ -6956,10 +6971,10 @@
         <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s">
         <v>38</v>
@@ -6980,7 +6995,7 @@
         <v>2385</v>
       </c>
       <c r="O61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P61" t="s">
         <v>40</v>
@@ -6989,7 +7004,7 @@
         <v>122</v>
       </c>
       <c r="R61" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S61">
         <v>3.39</v>
@@ -7030,8 +7045,8 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-      <c r="AF61">
-        <v>0</v>
+      <c r="AF61" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:32" ht="33.75">
@@ -7042,7 +7057,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
@@ -7054,10 +7069,10 @@
         <v>40</v>
       </c>
       <c r="G62" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s">
         <v>38</v>
@@ -7078,7 +7093,7 @@
         <v>2410</v>
       </c>
       <c r="O62" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P62" t="s">
         <v>40</v>
@@ -7087,7 +7102,7 @@
         <v>122</v>
       </c>
       <c r="R62" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S62">
         <v>3.39</v>
@@ -7114,10 +7129,10 @@
         <v>8495</v>
       </c>
       <c r="AE62" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF62">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:32" ht="33.75">
@@ -7128,7 +7143,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
@@ -7140,10 +7155,10 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I63" t="s">
         <v>38</v>
@@ -7164,7 +7179,7 @@
         <v>2385</v>
       </c>
       <c r="O63" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P63" t="s">
         <v>40</v>
@@ -7173,7 +7188,7 @@
         <v>122</v>
       </c>
       <c r="R63" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S63">
         <v>3.39</v>
@@ -7200,10 +7215,10 @@
         <v>10595</v>
       </c>
       <c r="AE63" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF63">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:32">
@@ -7214,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -7226,10 +7241,10 @@
         <v>40</v>
       </c>
       <c r="G64" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s">
         <v>38</v>
@@ -7250,7 +7265,7 @@
         <v>2410</v>
       </c>
       <c r="O64" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P64" t="s">
         <v>40</v>
@@ -7259,7 +7274,7 @@
         <v>122</v>
       </c>
       <c r="R64" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S64">
         <v>3.39</v>
@@ -7300,8 +7315,8 @@
       <c r="AE64" s="3">
         <v>178974</v>
       </c>
-      <c r="AF64">
-        <v>1</v>
+      <c r="AF64" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:32">
@@ -7312,10 +7327,10 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -7324,10 +7339,10 @@
         <v>40</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s">
         <v>38</v>
@@ -7348,7 +7363,7 @@
         <v>2443</v>
       </c>
       <c r="O65" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P65" t="s">
         <v>40</v>
@@ -7357,7 +7372,7 @@
         <v>122</v>
       </c>
       <c r="R65" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S65">
         <v>3.39</v>
@@ -7398,8 +7413,8 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-      <c r="AF65">
-        <v>1</v>
+      <c r="AF65" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:32">
@@ -7410,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -7422,10 +7437,10 @@
         <v>40</v>
       </c>
       <c r="G66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s">
         <v>38</v>
@@ -7446,7 +7461,7 @@
         <v>2425</v>
       </c>
       <c r="O66" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P66" t="s">
         <v>40</v>
@@ -7455,7 +7470,7 @@
         <v>122</v>
       </c>
       <c r="R66" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S66">
         <v>3.39</v>
@@ -7496,8 +7511,8 @@
       <c r="AE66" s="3">
         <v>0</v>
       </c>
-      <c r="AF66">
-        <v>0</v>
+      <c r="AF66" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="67" spans="1:32" ht="33.75">
@@ -7508,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -7520,7 +7535,7 @@
         <v>40</v>
       </c>
       <c r="G67" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s">
         <v>37</v>
@@ -7544,7 +7559,7 @@
         <v>2670</v>
       </c>
       <c r="O67" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P67" t="s">
         <v>40</v>
@@ -7580,10 +7595,10 @@
         <v>18280</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF67">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:32">
@@ -7594,10 +7609,10 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
@@ -7606,7 +7621,7 @@
         <v>40</v>
       </c>
       <c r="G68" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s">
         <v>37</v>
@@ -7630,7 +7645,7 @@
         <v>2700</v>
       </c>
       <c r="O68" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P68" t="s">
         <v>40</v>
@@ -7639,7 +7654,7 @@
         <v>134</v>
       </c>
       <c r="R68" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S68">
         <v>3.43</v>
@@ -7680,8 +7695,8 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-      <c r="AF68">
-        <v>1</v>
+      <c r="AF68" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:32">
@@ -7692,19 +7707,19 @@
         <v>-1</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F69" t="s">
         <v>40</v>
       </c>
       <c r="G69" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s">
         <v>37</v>
@@ -7728,16 +7743,16 @@
         <v>3515</v>
       </c>
       <c r="O69" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P69" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q69">
         <v>183</v>
       </c>
       <c r="R69" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S69">
         <v>3.58</v>
@@ -7778,8 +7793,8 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-      <c r="AF69">
-        <v>4</v>
+      <c r="AF69" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:32">
@@ -7790,19 +7805,19 @@
         <v>-1</v>
       </c>
       <c r="C70" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F70" t="s">
         <v>40</v>
       </c>
       <c r="G70" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H70" t="s">
         <v>37</v>
@@ -7826,16 +7841,16 @@
         <v>3750</v>
       </c>
       <c r="O70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P70" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q70">
         <v>183</v>
       </c>
       <c r="R70" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S70">
         <v>3.58</v>
@@ -7876,8 +7891,8 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-      <c r="AF70">
-        <v>2</v>
+      <c r="AF70" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="1:32">
@@ -7888,19 +7903,19 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F71" t="s">
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
@@ -7924,16 +7939,16 @@
         <v>3495</v>
       </c>
       <c r="O71" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P71" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q71">
         <v>183</v>
       </c>
       <c r="R71" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S71">
         <v>3.58</v>
@@ -7974,8 +7989,8 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-      <c r="AF71">
-        <v>4</v>
+      <c r="AF71" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:32">
@@ -7986,19 +8001,19 @@
         <v>-1</v>
       </c>
       <c r="C72" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
       </c>
       <c r="G72" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s">
         <v>37</v>
@@ -8022,16 +8037,16 @@
         <v>3770</v>
       </c>
       <c r="O72" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P72" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q72">
         <v>183</v>
       </c>
       <c r="R72" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S72">
         <v>3.58</v>
@@ -8072,8 +8087,8 @@
       <c r="AE72" s="3">
         <v>0</v>
       </c>
-      <c r="AF72">
-        <v>4</v>
+      <c r="AF72" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:32" ht="33.75">
@@ -8084,7 +8099,7 @@
         <v>-1</v>
       </c>
       <c r="C73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D73" t="s">
         <v>33</v>
@@ -8096,7 +8111,7 @@
         <v>40</v>
       </c>
       <c r="G73" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s">
         <v>37</v>
@@ -8120,10 +8135,10 @@
         <v>3740</v>
       </c>
       <c r="O73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P73" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q73">
         <v>234</v>
@@ -8156,10 +8171,10 @@
         <v>34184</v>
       </c>
       <c r="AE73" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF73">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:32" ht="33.75">
@@ -8170,7 +8185,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D74" t="s">
         <v>33</v>
@@ -8206,10 +8221,10 @@
         <v>3685</v>
       </c>
       <c r="O74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q74">
         <v>234</v>
@@ -8242,10 +8257,10 @@
         <v>35056</v>
       </c>
       <c r="AE74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF74">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="75" spans="1:32">
@@ -8256,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D75" t="s">
         <v>33</v>
@@ -8268,7 +8283,7 @@
         <v>40</v>
       </c>
       <c r="G75" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H75" t="s">
         <v>37</v>
@@ -8292,10 +8307,10 @@
         <v>3900</v>
       </c>
       <c r="O75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q75">
         <v>308</v>
@@ -8342,8 +8357,8 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-      <c r="AF75">
-        <v>4</v>
+      <c r="AF75" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:32">
@@ -8354,7 +8369,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D76" t="s">
         <v>33</v>
@@ -8366,7 +8381,7 @@
         <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H76" t="s">
         <v>37</v>
@@ -8390,10 +8405,10 @@
         <v>3715</v>
       </c>
       <c r="O76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P76" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q76">
         <v>304</v>
@@ -8440,8 +8455,8 @@
       <c r="AE76" s="3">
         <v>454447</v>
       </c>
-      <c r="AF76">
-        <v>4</v>
+      <c r="AF76" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:32">
@@ -8452,19 +8467,19 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F77" t="s">
         <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
         <v>37</v>
@@ -8488,7 +8503,7 @@
         <v>2910</v>
       </c>
       <c r="O77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P77" t="s">
         <v>40</v>
@@ -8538,8 +8553,8 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-      <c r="AF77">
-        <v>0</v>
+      <c r="AF77" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:32">
@@ -8550,7 +8565,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -8562,10 +8577,10 @@
         <v>35</v>
       </c>
       <c r="G78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H78" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I78" t="s">
         <v>38</v>
@@ -8586,7 +8601,7 @@
         <v>1918</v>
       </c>
       <c r="O78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P78" t="s">
         <v>40</v>
@@ -8595,7 +8610,7 @@
         <v>92</v>
       </c>
       <c r="R78" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S78">
         <v>2.97</v>
@@ -8636,8 +8651,8 @@
       <c r="AE78" s="3">
         <v>93159</v>
       </c>
-      <c r="AF78">
-        <v>0</v>
+      <c r="AF78" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:32">
@@ -8648,7 +8663,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
         <v>33</v>
@@ -8660,10 +8675,10 @@
         <v>35</v>
       </c>
       <c r="G79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H79" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I79" t="s">
         <v>38</v>
@@ -8684,7 +8699,7 @@
         <v>1944</v>
       </c>
       <c r="O79" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P79" t="s">
         <v>40</v>
@@ -8693,7 +8708,7 @@
         <v>92</v>
       </c>
       <c r="R79" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S79">
         <v>2.97</v>
@@ -8734,8 +8749,8 @@
       <c r="AE79" s="3">
         <v>3302</v>
       </c>
-      <c r="AF79">
-        <v>0</v>
+      <c r="AF79" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:32">
@@ -8746,7 +8761,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -8758,10 +8773,10 @@
         <v>35</v>
       </c>
       <c r="G80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H80" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I80" t="s">
         <v>38</v>
@@ -8782,7 +8797,7 @@
         <v>2004</v>
       </c>
       <c r="O80" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P80" t="s">
         <v>40</v>
@@ -8791,7 +8806,7 @@
         <v>92</v>
       </c>
       <c r="R80" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S80">
         <v>2.97</v>
@@ -8832,8 +8847,8 @@
       <c r="AE80" s="3">
         <v>133249</v>
       </c>
-      <c r="AF80">
-        <v>0</v>
+      <c r="AF80" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:32">
@@ -8844,22 +8859,22 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D81" t="s">
         <v>33</v>
       </c>
       <c r="E81" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F81" t="s">
         <v>35</v>
       </c>
       <c r="G81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H81" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I81" t="s">
         <v>38</v>
@@ -8880,7 +8895,7 @@
         <v>2145</v>
       </c>
       <c r="O81" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P81" t="s">
         <v>40</v>
@@ -8889,7 +8904,7 @@
         <v>98</v>
       </c>
       <c r="R81" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S81">
         <v>3.03</v>
@@ -8930,8 +8945,8 @@
       <c r="AE81" s="3">
         <v>93159</v>
       </c>
-      <c r="AF81">
-        <v>0</v>
+      <c r="AF81" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:32">
@@ -8942,22 +8957,22 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
       </c>
       <c r="E82" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F82" t="s">
         <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H82" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I82" t="s">
         <v>38</v>
@@ -8978,7 +8993,7 @@
         <v>2370</v>
       </c>
       <c r="O82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P82" t="s">
         <v>40</v>
@@ -8987,7 +9002,7 @@
         <v>110</v>
       </c>
       <c r="R82" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S82">
         <v>3.17</v>
@@ -9028,8 +9043,8 @@
       <c r="AE82" s="3">
         <v>93159</v>
       </c>
-      <c r="AF82">
-        <v>0</v>
+      <c r="AF82" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:32">
@@ -9040,7 +9055,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
@@ -9052,10 +9067,10 @@
         <v>35</v>
       </c>
       <c r="G83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H83" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I83" t="s">
         <v>38</v>
@@ -9076,7 +9091,7 @@
         <v>2328</v>
       </c>
       <c r="O83" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P83" t="s">
         <v>40</v>
@@ -9085,7 +9100,7 @@
         <v>122</v>
       </c>
       <c r="R83" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S83">
         <v>3.35</v>
@@ -9126,8 +9141,8 @@
       <c r="AE83" s="3">
         <v>93159</v>
       </c>
-      <c r="AF83">
-        <v>0</v>
+      <c r="AF83" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:32">
@@ -9138,22 +9153,22 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D84" t="s">
         <v>33</v>
       </c>
       <c r="E84" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F84" t="s">
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H84" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I84" t="s">
         <v>38</v>
@@ -9174,7 +9189,7 @@
         <v>2833</v>
       </c>
       <c r="O84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P84" t="s">
         <v>40</v>
@@ -9183,7 +9198,7 @@
         <v>156</v>
       </c>
       <c r="R84" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S84">
         <v>3.58</v>
@@ -9224,8 +9239,8 @@
       <c r="AE84" s="3">
         <v>133249</v>
       </c>
-      <c r="AF84">
-        <v>0</v>
+      <c r="AF84" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:32">
@@ -9236,22 +9251,22 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D85" t="s">
         <v>33</v>
       </c>
       <c r="E85" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F85" t="s">
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H85" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I85" t="s">
         <v>38</v>
@@ -9272,7 +9287,7 @@
         <v>2921</v>
       </c>
       <c r="O85" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P85" t="s">
         <v>40</v>
@@ -9281,7 +9296,7 @@
         <v>156</v>
       </c>
       <c r="R85" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S85">
         <v>3.59</v>
@@ -9322,8 +9337,8 @@
       <c r="AE85" s="3">
         <v>93159</v>
       </c>
-      <c r="AF85">
-        <v>0</v>
+      <c r="AF85" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:32">
@@ -9334,22 +9349,22 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F86" t="s">
         <v>35</v>
       </c>
       <c r="G86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H86" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I86" t="s">
         <v>38</v>
@@ -9370,7 +9385,7 @@
         <v>2926</v>
       </c>
       <c r="O86" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P86" t="s">
         <v>40</v>
@@ -9379,7 +9394,7 @@
         <v>156</v>
       </c>
       <c r="R86" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S86">
         <v>3.59</v>
@@ -9420,8 +9435,8 @@
       <c r="AE86" s="3">
         <v>93159</v>
       </c>
-      <c r="AF86">
-        <v>0</v>
+      <c r="AF86" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:32">
@@ -9432,7 +9447,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D87" t="s">
         <v>33</v>
@@ -9444,10 +9459,10 @@
         <v>40</v>
       </c>
       <c r="G87" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H87" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I87" t="s">
         <v>38</v>
@@ -9468,7 +9483,7 @@
         <v>2365</v>
       </c>
       <c r="O87" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P87" t="s">
         <v>40</v>
@@ -9477,7 +9492,7 @@
         <v>122</v>
       </c>
       <c r="R87" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S87">
         <v>3.35</v>
@@ -9518,8 +9533,8 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-      <c r="AF87">
-        <v>1</v>
+      <c r="AF87" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:32">
@@ -9530,7 +9545,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
@@ -9542,10 +9557,10 @@
         <v>40</v>
       </c>
       <c r="G88" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H88" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I88" t="s">
         <v>38</v>
@@ -9566,7 +9581,7 @@
         <v>2405</v>
       </c>
       <c r="O88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P88" t="s">
         <v>40</v>
@@ -9575,7 +9590,7 @@
         <v>122</v>
       </c>
       <c r="R88" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S88">
         <v>3.35</v>
@@ -9616,8 +9631,8 @@
       <c r="AE88" s="3">
         <v>5100</v>
       </c>
-      <c r="AF88">
-        <v>1</v>
+      <c r="AF88" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:32">
@@ -9628,22 +9643,22 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F89" t="s">
         <v>40</v>
       </c>
       <c r="G89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H89" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I89" t="s">
         <v>38</v>
@@ -9664,7 +9679,7 @@
         <v>2403</v>
       </c>
       <c r="O89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P89" t="s">
         <v>40</v>
@@ -9673,7 +9688,7 @@
         <v>110</v>
       </c>
       <c r="R89" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S89">
         <v>3.17</v>
@@ -9714,8 +9729,8 @@
       <c r="AE89" s="3">
         <v>133249</v>
       </c>
-      <c r="AF89">
-        <v>1</v>
+      <c r="AF89" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:32">
@@ -9726,7 +9741,7 @@
         <v>-1</v>
       </c>
       <c r="C90" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D90" t="s">
         <v>33</v>
@@ -9738,10 +9753,10 @@
         <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H90" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I90" t="s">
         <v>38</v>
@@ -9762,7 +9777,7 @@
         <v>2403</v>
       </c>
       <c r="O90" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P90" t="s">
         <v>40</v>
@@ -9771,7 +9786,7 @@
         <v>110</v>
       </c>
       <c r="R90" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S90">
         <v>3.17</v>
@@ -9812,8 +9827,8 @@
       <c r="AE90" s="3">
         <v>93159</v>
       </c>
-      <c r="AF90">
-        <v>1</v>
+      <c r="AF90" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="91" spans="1:32">
@@ -9824,7 +9839,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D91" t="s">
         <v>33</v>
@@ -9836,10 +9851,10 @@
         <v>35</v>
       </c>
       <c r="G91" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H91" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I91" t="s">
         <v>38</v>
@@ -9860,7 +9875,7 @@
         <v>1889</v>
       </c>
       <c r="O91" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P91" t="s">
         <v>40</v>
@@ -9869,7 +9884,7 @@
         <v>97</v>
       </c>
       <c r="R91" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S91">
         <v>3.15</v>
@@ -9910,8 +9925,8 @@
       <c r="AE91" s="3">
         <v>251591</v>
       </c>
-      <c r="AF91">
-        <v>1</v>
+      <c r="AF91" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:32">
@@ -9922,10 +9937,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E92" t="s">
         <v>34</v>
@@ -9934,10 +9949,10 @@
         <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H92" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I92" t="s">
         <v>38</v>
@@ -9958,7 +9973,7 @@
         <v>2017</v>
       </c>
       <c r="O92" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P92" t="s">
         <v>40</v>
@@ -9967,7 +9982,7 @@
         <v>103</v>
       </c>
       <c r="R92" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S92">
         <v>2.99</v>
@@ -10008,8 +10023,8 @@
       <c r="AE92" s="3">
         <v>1400</v>
       </c>
-      <c r="AF92">
-        <v>1</v>
+      <c r="AF92" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:32">
@@ -10020,7 +10035,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D93" t="s">
         <v>33</v>
@@ -10032,10 +10047,10 @@
         <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H93" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I93" t="s">
         <v>38</v>
@@ -10056,7 +10071,7 @@
         <v>1918</v>
       </c>
       <c r="O93" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P93" t="s">
         <v>40</v>
@@ -10065,7 +10080,7 @@
         <v>97</v>
       </c>
       <c r="R93" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S93">
         <v>3.15</v>
@@ -10106,8 +10121,8 @@
       <c r="AE93" s="3">
         <v>1276094</v>
       </c>
-      <c r="AF93">
-        <v>1</v>
+      <c r="AF93" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:32" ht="33.75">
@@ -10118,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D94" t="s">
         <v>33</v>
@@ -10130,10 +10145,10 @@
         <v>40</v>
       </c>
       <c r="G94" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H94" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I94" t="s">
         <v>38</v>
@@ -10154,7 +10169,7 @@
         <v>1938</v>
       </c>
       <c r="O94" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P94" t="s">
         <v>40</v>
@@ -10163,7 +10178,7 @@
         <v>97</v>
       </c>
       <c r="R94" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S94">
         <v>3.15</v>
@@ -10190,10 +10205,10 @@
         <v>6849</v>
       </c>
       <c r="AE94" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF94">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AF94" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:32">
@@ -10204,7 +10219,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D95" t="s">
         <v>33</v>
@@ -10216,10 +10231,10 @@
         <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H95" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I95" t="s">
         <v>38</v>
@@ -10240,7 +10255,7 @@
         <v>2024</v>
       </c>
       <c r="O95" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P95" t="s">
         <v>40</v>
@@ -10249,7 +10264,7 @@
         <v>97</v>
       </c>
       <c r="R95" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S95">
         <v>3.15</v>
@@ -10290,8 +10305,8 @@
       <c r="AE95" s="3">
         <v>135821</v>
       </c>
-      <c r="AF95">
-        <v>2</v>
+      <c r="AF95" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:32">
@@ -10302,7 +10317,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="D96" t="s">
         <v>33</v>
@@ -10314,10 +10329,10 @@
         <v>35</v>
       </c>
       <c r="G96" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H96" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I96" t="s">
         <v>38</v>
@@ -10338,7 +10353,7 @@
         <v>1951</v>
       </c>
       <c r="O96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P96" t="s">
         <v>40</v>
@@ -10347,7 +10362,7 @@
         <v>97</v>
       </c>
       <c r="R96" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S96">
         <v>3.15</v>
@@ -10388,8 +10403,8 @@
       <c r="AE96" s="3">
         <v>50883</v>
       </c>
-      <c r="AF96">
-        <v>1</v>
+      <c r="AF96" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:32">
@@ -10400,7 +10415,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="D97" t="s">
         <v>33</v>
@@ -10412,10 +10427,10 @@
         <v>35</v>
       </c>
       <c r="G97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H97" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I97" t="s">
         <v>38</v>
@@ -10436,7 +10451,7 @@
         <v>2028</v>
       </c>
       <c r="O97" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P97" t="s">
         <v>40</v>
@@ -10445,7 +10460,7 @@
         <v>97</v>
       </c>
       <c r="R97" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S97">
         <v>3.15</v>
@@ -10486,8 +10501,8 @@
       <c r="AE97" s="3">
         <v>237229</v>
       </c>
-      <c r="AF97">
-        <v>0</v>
+      <c r="AF97" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="33.75">
@@ -10498,7 +10513,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
@@ -10510,10 +10525,10 @@
         <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H98" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I98" t="s">
         <v>38</v>
@@ -10534,7 +10549,7 @@
         <v>1971</v>
       </c>
       <c r="O98" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P98" t="s">
         <v>40</v>
@@ -10543,7 +10558,7 @@
         <v>97</v>
       </c>
       <c r="R98" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S98">
         <v>3.15</v>
@@ -10570,10 +10585,10 @@
         <v>7499</v>
       </c>
       <c r="AE98" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF98">
-        <v>1</v>
+        <v>90</v>
+      </c>
+      <c r="AF98" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:32">
@@ -10584,7 +10599,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D99" t="s">
         <v>33</v>
@@ -10596,10 +10611,10 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H99" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I99" t="s">
         <v>38</v>
@@ -10620,7 +10635,7 @@
         <v>2037</v>
       </c>
       <c r="O99" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P99" t="s">
         <v>40</v>
@@ -10629,7 +10644,7 @@
         <v>97</v>
       </c>
       <c r="R99" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S99">
         <v>3.15</v>
@@ -10670,8 +10685,8 @@
       <c r="AE99" s="3">
         <v>154</v>
       </c>
-      <c r="AF99">
-        <v>2</v>
+      <c r="AF99" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="100" spans="1:32" ht="33.75">
@@ -10682,7 +10697,7 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
@@ -10694,10 +10709,10 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H100" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I100" t="s">
         <v>38</v>
@@ -10718,7 +10733,7 @@
         <v>2008</v>
       </c>
       <c r="O100" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P100" t="s">
         <v>40</v>
@@ -10727,7 +10742,7 @@
         <v>97</v>
       </c>
       <c r="R100" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S100">
         <v>3.15</v>
@@ -10754,10 +10769,10 @@
         <v>8249</v>
       </c>
       <c r="AE100" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF100">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="AF100" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="101" spans="1:32">
@@ -10768,7 +10783,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="D101" t="s">
         <v>33</v>
@@ -10780,10 +10795,10 @@
         <v>40</v>
       </c>
       <c r="G101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H101" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I101" t="s">
         <v>38</v>
@@ -10804,7 +10819,7 @@
         <v>2324</v>
       </c>
       <c r="O101" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P101" t="s">
         <v>40</v>
@@ -10813,7 +10828,7 @@
         <v>120</v>
       </c>
       <c r="R101" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S101">
         <v>3.33</v>
@@ -10854,8 +10869,8 @@
       <c r="AE101" s="3">
         <v>1276094</v>
       </c>
-      <c r="AF101">
-        <v>0</v>
+      <c r="AF101" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:32">
@@ -10866,7 +10881,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="D102" t="s">
         <v>33</v>
@@ -10878,10 +10893,10 @@
         <v>40</v>
       </c>
       <c r="G102" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H102" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I102" t="s">
         <v>38</v>
@@ -10902,7 +10917,7 @@
         <v>2302</v>
       </c>
       <c r="O102" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P102" t="s">
         <v>40</v>
@@ -10911,7 +10926,7 @@
         <v>120</v>
       </c>
       <c r="R102" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S102">
         <v>3.33</v>
@@ -10952,8 +10967,8 @@
       <c r="AE102" s="3">
         <v>11193</v>
       </c>
-      <c r="AF102">
-        <v>1</v>
+      <c r="AF102" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="33.75">
@@ -10964,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
         <v>33</v>
@@ -10976,10 +10991,10 @@
         <v>40</v>
       </c>
       <c r="G103" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H103" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I103" t="s">
         <v>38</v>
@@ -11000,10 +11015,10 @@
         <v>3095</v>
       </c>
       <c r="O103" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q103">
         <v>181</v>
@@ -11036,10 +11051,10 @@
         <v>13499</v>
       </c>
       <c r="AE103" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF103">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="AF103" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="33.75">
@@ -11050,7 +11065,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
         <v>33</v>
@@ -11062,10 +11077,10 @@
         <v>40</v>
       </c>
       <c r="G104" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H104" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I104" t="s">
         <v>38</v>
@@ -11086,10 +11101,10 @@
         <v>3296</v>
       </c>
       <c r="O104" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q104">
         <v>181</v>
@@ -11122,10 +11137,10 @@
         <v>14399</v>
       </c>
       <c r="AE104" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF104">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="AF104" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="105" spans="1:32">
@@ -11136,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
         <v>33</v>
@@ -11148,10 +11163,10 @@
         <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H105" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I105" t="s">
         <v>38</v>
@@ -11172,10 +11187,10 @@
         <v>3060</v>
       </c>
       <c r="O105" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q105">
         <v>181</v>
@@ -11222,8 +11237,8 @@
       <c r="AE105" s="3">
         <v>0</v>
       </c>
-      <c r="AF105">
-        <v>4</v>
+      <c r="AF105" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="106" spans="1:32">
@@ -11234,7 +11249,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D106" t="s">
         <v>33</v>
@@ -11246,7 +11261,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H106" t="s">
         <v>37</v>
@@ -11270,10 +11285,10 @@
         <v>3071</v>
       </c>
       <c r="O106" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q106">
         <v>181</v>
@@ -11320,8 +11335,8 @@
       <c r="AE106" s="3">
         <v>494904</v>
       </c>
-      <c r="AF106">
-        <v>0</v>
+      <c r="AF106" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:32">
@@ -11332,19 +11347,19 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
         <v>33</v>
       </c>
       <c r="E107" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F107" t="s">
         <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H107" t="s">
         <v>37</v>
@@ -11368,10 +11383,10 @@
         <v>3139</v>
       </c>
       <c r="O107" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q107">
         <v>181</v>
@@ -11418,8 +11433,8 @@
       <c r="AE107" s="3">
         <v>223059</v>
       </c>
-      <c r="AF107">
-        <v>4</v>
+      <c r="AF107" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="33.75">
@@ -11430,7 +11445,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D108" t="s">
         <v>33</v>
@@ -11442,7 +11457,7 @@
         <v>35</v>
       </c>
       <c r="G108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H108" t="s">
         <v>37</v>
@@ -11466,10 +11481,10 @@
         <v>3139</v>
       </c>
       <c r="O108" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q108">
         <v>181</v>
@@ -11502,10 +11517,10 @@
         <v>18399</v>
       </c>
       <c r="AE108" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF108">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="AF108" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:32">
@@ -11516,7 +11531,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D109" t="s">
         <v>33</v>
@@ -11528,7 +11543,7 @@
         <v>40</v>
       </c>
       <c r="G109" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H109" t="s">
         <v>37</v>
@@ -11552,7 +11567,7 @@
         <v>3020</v>
       </c>
       <c r="O109" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P109" t="s">
         <v>40</v>
@@ -11602,8 +11617,8 @@
       <c r="AE109" s="3">
         <v>0</v>
       </c>
-      <c r="AF109">
-        <v>1</v>
+      <c r="AF109" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="110" spans="1:32">
@@ -11614,19 +11629,19 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D110" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E110" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F110" t="s">
         <v>40</v>
       </c>
       <c r="G110" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H110" t="s">
         <v>37</v>
@@ -11650,7 +11665,7 @@
         <v>3197</v>
       </c>
       <c r="O110" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P110" t="s">
         <v>40</v>
@@ -11659,7 +11674,7 @@
         <v>152</v>
       </c>
       <c r="R110" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S110">
         <v>3.7</v>
@@ -11700,8 +11715,8 @@
       <c r="AE110" s="3">
         <v>0</v>
       </c>
-      <c r="AF110">
-        <v>1</v>
+      <c r="AF110" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:32">
@@ -11712,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D111" t="s">
         <v>33</v>
@@ -11724,7 +11739,7 @@
         <v>40</v>
       </c>
       <c r="G111" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H111" t="s">
         <v>37</v>
@@ -11748,7 +11763,7 @@
         <v>3230</v>
       </c>
       <c r="O111" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P111" t="s">
         <v>40</v>
@@ -11798,8 +11813,8 @@
       <c r="AE111" s="3">
         <v>0</v>
       </c>
-      <c r="AF111">
-        <v>2</v>
+      <c r="AF111" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="112" spans="1:32">
@@ -11810,19 +11825,19 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D112" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E112" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F112" t="s">
         <v>40</v>
       </c>
       <c r="G112" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H112" t="s">
         <v>37</v>
@@ -11846,7 +11861,7 @@
         <v>3430</v>
       </c>
       <c r="O112" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P112" t="s">
         <v>40</v>
@@ -11855,7 +11870,7 @@
         <v>152</v>
       </c>
       <c r="R112" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S112">
         <v>3.7</v>
@@ -11896,8 +11911,8 @@
       <c r="AE112" s="3">
         <v>0</v>
       </c>
-      <c r="AF112">
-        <v>2</v>
+      <c r="AF112" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="113" spans="1:32">
@@ -11908,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D113" t="s">
         <v>33</v>
@@ -11920,7 +11935,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H113" t="s">
         <v>37</v>
@@ -11944,7 +11959,7 @@
         <v>3075</v>
       </c>
       <c r="O113" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P113" t="s">
         <v>40</v>
@@ -11994,8 +12009,8 @@
       <c r="AE113" s="3">
         <v>0</v>
       </c>
-      <c r="AF113">
-        <v>1</v>
+      <c r="AF113" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="114" spans="1:32">
@@ -12006,19 +12021,19 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D114" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E114" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F114" t="s">
         <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H114" t="s">
         <v>37</v>
@@ -12042,7 +12057,7 @@
         <v>3252</v>
       </c>
       <c r="O114" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P114" t="s">
         <v>40</v>
@@ -12051,7 +12066,7 @@
         <v>152</v>
       </c>
       <c r="R114" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S114">
         <v>3.7</v>
@@ -12092,8 +12107,8 @@
       <c r="AE114" s="3">
         <v>0</v>
       </c>
-      <c r="AF114">
-        <v>1</v>
+      <c r="AF114" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="115" spans="1:32">
@@ -12104,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D115" t="s">
         <v>33</v>
@@ -12116,7 +12131,7 @@
         <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H115" t="s">
         <v>37</v>
@@ -12140,7 +12155,7 @@
         <v>3285</v>
       </c>
       <c r="O115" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P115" t="s">
         <v>40</v>
@@ -12190,8 +12205,8 @@
       <c r="AE115" s="3">
         <v>0</v>
       </c>
-      <c r="AF115">
-        <v>2</v>
+      <c r="AF115" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:32">
@@ -12202,19 +12217,19 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D116" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E116" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F116" t="s">
         <v>40</v>
       </c>
       <c r="G116" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H116" t="s">
         <v>37</v>
@@ -12238,7 +12253,7 @@
         <v>3485</v>
       </c>
       <c r="O116" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P116" t="s">
         <v>40</v>
@@ -12247,7 +12262,7 @@
         <v>152</v>
       </c>
       <c r="R116" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S116">
         <v>3.7</v>
@@ -12288,8 +12303,8 @@
       <c r="AE116" s="3">
         <v>0</v>
       </c>
-      <c r="AF116">
-        <v>2</v>
+      <c r="AF116" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="117" spans="1:32">
@@ -12300,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D117" t="s">
         <v>33</v>
@@ -12312,7 +12327,7 @@
         <v>40</v>
       </c>
       <c r="G117" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H117" t="s">
         <v>37</v>
@@ -12336,7 +12351,7 @@
         <v>3075</v>
       </c>
       <c r="O117" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P117" t="s">
         <v>40</v>
@@ -12386,8 +12401,8 @@
       <c r="AE117" s="3">
         <v>0</v>
       </c>
-      <c r="AF117">
-        <v>1</v>
+      <c r="AF117" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:32">
@@ -12398,19 +12413,19 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D118" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F118" t="s">
         <v>40</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H118" t="s">
         <v>37</v>
@@ -12434,7 +12449,7 @@
         <v>3252</v>
       </c>
       <c r="O118" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P118" t="s">
         <v>40</v>
@@ -12443,7 +12458,7 @@
         <v>152</v>
       </c>
       <c r="R118" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S118">
         <v>3.7</v>
@@ -12484,8 +12499,8 @@
       <c r="AE118" s="3">
         <v>0</v>
       </c>
-      <c r="AF118">
-        <v>1</v>
+      <c r="AF118" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="119" spans="1:32">
@@ -12496,19 +12511,19 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D119" t="s">
         <v>33</v>
       </c>
       <c r="E119" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F119" t="s">
         <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H119" t="s">
         <v>37</v>
@@ -12532,7 +12547,7 @@
         <v>3130</v>
       </c>
       <c r="O119" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P119" t="s">
         <v>40</v>
@@ -12582,8 +12597,8 @@
       <c r="AE119" s="3">
         <v>0</v>
       </c>
-      <c r="AF119">
-        <v>4</v>
+      <c r="AF119" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="120" spans="1:32">
@@ -12594,7 +12609,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D120" t="s">
         <v>33</v>
@@ -12606,10 +12621,10 @@
         <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H120" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I120" t="s">
         <v>38</v>
@@ -12630,7 +12645,7 @@
         <v>1918</v>
       </c>
       <c r="O120" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P120" t="s">
         <v>40</v>
@@ -12639,7 +12654,7 @@
         <v>90</v>
       </c>
       <c r="R120" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S120">
         <v>2.97</v>
@@ -12680,8 +12695,8 @@
       <c r="AE120" s="3">
         <v>0</v>
       </c>
-      <c r="AF120">
-        <v>0</v>
+      <c r="AF120" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:32">
@@ -12692,22 +12707,22 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D121" t="s">
         <v>33</v>
       </c>
       <c r="E121" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F121" t="s">
         <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H121" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I121" t="s">
         <v>38</v>
@@ -12728,7 +12743,7 @@
         <v>2128</v>
       </c>
       <c r="O121" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P121" t="s">
         <v>40</v>
@@ -12737,7 +12752,7 @@
         <v>98</v>
       </c>
       <c r="R121" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S121">
         <v>3.03</v>
@@ -12778,8 +12793,8 @@
       <c r="AE121" s="3">
         <v>0</v>
       </c>
-      <c r="AF121">
-        <v>0</v>
+      <c r="AF121" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:32">
@@ -12790,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D122" t="s">
         <v>33</v>
@@ -12802,10 +12817,10 @@
         <v>40</v>
       </c>
       <c r="G122" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H122" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I122" t="s">
         <v>38</v>
@@ -12826,7 +12841,7 @@
         <v>1967</v>
       </c>
       <c r="O122" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P122" t="s">
         <v>40</v>
@@ -12835,7 +12850,7 @@
         <v>90</v>
       </c>
       <c r="R122" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S122">
         <v>2.97</v>
@@ -12876,8 +12891,8 @@
       <c r="AE122" s="3">
         <v>0</v>
       </c>
-      <c r="AF122">
-        <v>0</v>
+      <c r="AF122" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:32">
@@ -12888,7 +12903,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D123" t="s">
         <v>33</v>
@@ -12900,10 +12915,10 @@
         <v>40</v>
       </c>
       <c r="G123" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H123" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I123" t="s">
         <v>38</v>
@@ -12924,7 +12939,7 @@
         <v>1989</v>
       </c>
       <c r="O123" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P123" t="s">
         <v>40</v>
@@ -12933,7 +12948,7 @@
         <v>90</v>
       </c>
       <c r="R123" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S123">
         <v>2.97</v>
@@ -12974,8 +12989,8 @@
       <c r="AE123" s="3">
         <v>0</v>
       </c>
-      <c r="AF123">
-        <v>1</v>
+      <c r="AF123" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="124" spans="1:32">
@@ -12986,7 +13001,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D124" t="s">
         <v>33</v>
@@ -12998,10 +13013,10 @@
         <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H124" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I124" t="s">
         <v>38</v>
@@ -13022,7 +13037,7 @@
         <v>2191</v>
       </c>
       <c r="O124" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P124" t="s">
         <v>40</v>
@@ -13031,7 +13046,7 @@
         <v>98</v>
       </c>
       <c r="R124" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S124">
         <v>2.97</v>
@@ -13072,8 +13087,8 @@
       <c r="AE124" s="3">
         <v>0</v>
       </c>
-      <c r="AF124">
-        <v>1</v>
+      <c r="AF124" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="125" spans="1:32">
@@ -13084,7 +13099,7 @@
         <v>-1</v>
       </c>
       <c r="C125" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D125" t="s">
         <v>33</v>
@@ -13096,10 +13111,10 @@
         <v>40</v>
       </c>
       <c r="G125" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H125" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I125" t="s">
         <v>38</v>
@@ -13120,7 +13135,7 @@
         <v>2535</v>
       </c>
       <c r="O125" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P125" t="s">
         <v>40</v>
@@ -13129,7 +13144,7 @@
         <v>122</v>
       </c>
       <c r="R125" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S125">
         <v>3.35</v>
@@ -13170,8 +13185,8 @@
       <c r="AE125" s="3">
         <v>0</v>
       </c>
-      <c r="AF125">
-        <v>2</v>
+      <c r="AF125" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="126" spans="1:32">
@@ -13182,19 +13197,19 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
       </c>
       <c r="E126" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F126" t="s">
         <v>35</v>
       </c>
       <c r="G126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H126" t="s">
         <v>37</v>
@@ -13218,7 +13233,7 @@
         <v>2818</v>
       </c>
       <c r="O126" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P126" t="s">
         <v>40</v>
@@ -13227,7 +13242,7 @@
         <v>156</v>
       </c>
       <c r="R126" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="S126">
         <v>3.59</v>
@@ -13268,8 +13283,8 @@
       <c r="AE126" s="3">
         <v>0</v>
       </c>
-      <c r="AF126">
-        <v>0</v>
+      <c r="AF126" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:32">
@@ -13280,7 +13295,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D127" t="s">
         <v>33</v>
@@ -13292,7 +13307,7 @@
         <v>35</v>
       </c>
       <c r="G127" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H127" t="s">
         <v>37</v>
@@ -13316,7 +13331,7 @@
         <v>2778</v>
       </c>
       <c r="O127" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P127" t="s">
         <v>40</v>
@@ -13366,8 +13381,8 @@
       <c r="AE127" s="3">
         <v>76411</v>
       </c>
-      <c r="AF127">
-        <v>0</v>
+      <c r="AF127" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:32">
@@ -13378,7 +13393,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D128" t="s">
         <v>33</v>
@@ -13390,13 +13405,13 @@
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H128" t="s">
         <v>37</v>
       </c>
       <c r="I128" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J128">
         <v>89.5</v>
@@ -13414,10 +13429,10 @@
         <v>2756</v>
       </c>
       <c r="O128" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P128" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q128">
         <v>194</v>
@@ -13464,8 +13479,8 @@
       <c r="AE128" s="3">
         <v>27295</v>
       </c>
-      <c r="AF128">
-        <v>4</v>
+      <c r="AF128" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="129" spans="1:32">
@@ -13476,7 +13491,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D129" t="s">
         <v>33</v>
@@ -13488,13 +13503,13 @@
         <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H129" t="s">
         <v>37</v>
       </c>
       <c r="I129" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J129">
         <v>89.5</v>
@@ -13512,10 +13527,10 @@
         <v>2756</v>
       </c>
       <c r="O129" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q129">
         <v>194</v>
@@ -13562,8 +13577,8 @@
       <c r="AE129" s="3">
         <v>68590</v>
       </c>
-      <c r="AF129">
-        <v>4</v>
+      <c r="AF129" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="130" spans="1:32">
@@ -13574,7 +13589,7 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D130" t="s">
         <v>33</v>
@@ -13592,7 +13607,7 @@
         <v>37</v>
       </c>
       <c r="I130" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="J130">
         <v>89.5</v>
@@ -13610,10 +13625,10 @@
         <v>2800</v>
       </c>
       <c r="O130" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P130" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q130">
         <v>194</v>
@@ -13660,8 +13675,8 @@
       <c r="AE130" s="3">
         <v>2097</v>
       </c>
-      <c r="AF130">
-        <v>3</v>
+      <c r="AF130" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:32">
@@ -13672,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D131" t="s">
         <v>33</v>
@@ -13684,7 +13699,7 @@
         <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H131" t="s">
         <v>37</v>
@@ -13708,10 +13723,10 @@
         <v>3366</v>
       </c>
       <c r="O131" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="P131" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="Q131">
         <v>203</v>
@@ -13758,8 +13773,8 @@
       <c r="AE131" s="3">
         <v>68590</v>
       </c>
-      <c r="AF131">
-        <v>4</v>
+      <c r="AF131" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="132" spans="1:32" ht="33.75">
@@ -13770,7 +13785,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D132" t="s">
         <v>33</v>
@@ -13782,10 +13797,10 @@
         <v>40</v>
       </c>
       <c r="G132" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H132" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I132" t="s">
         <v>38</v>
@@ -13806,7 +13821,7 @@
         <v>2579</v>
       </c>
       <c r="O132" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P132" t="s">
         <v>40</v>
@@ -13842,10 +13857,10 @@
         <v>9295</v>
       </c>
       <c r="AE132" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF132">
-        <v>2</v>
+        <v>90</v>
+      </c>
+      <c r="AF132" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="133" spans="1:32">
@@ -13856,7 +13871,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D133" t="s">
         <v>33</v>
@@ -13868,10 +13883,10 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H133" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I133" t="s">
         <v>38</v>
@@ -13892,7 +13907,7 @@
         <v>2460</v>
       </c>
       <c r="O133" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P133" t="s">
         <v>40</v>
@@ -13942,8 +13957,8 @@
       <c r="AE133" s="3">
         <v>0</v>
       </c>
-      <c r="AF133">
-        <v>0</v>
+      <c r="AF133" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:32">
@@ -13954,7 +13969,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D134" t="s">
         <v>33</v>
@@ -13966,10 +13981,10 @@
         <v>35</v>
       </c>
       <c r="G134" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H134" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I134" t="s">
         <v>38</v>
@@ -13990,7 +14005,7 @@
         <v>2658</v>
       </c>
       <c r="O134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P134" t="s">
         <v>40</v>
@@ -14040,8 +14055,8 @@
       <c r="AE134" s="3">
         <v>0</v>
       </c>
-      <c r="AF134">
-        <v>0</v>
+      <c r="AF134" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:32">
@@ -14052,7 +14067,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D135" t="s">
         <v>33</v>
@@ -14064,10 +14079,10 @@
         <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H135" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I135" t="s">
         <v>38</v>
@@ -14088,7 +14103,7 @@
         <v>2695</v>
       </c>
       <c r="O135" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P135" t="s">
         <v>40</v>
@@ -14138,8 +14153,8 @@
       <c r="AE135" s="3">
         <v>0</v>
       </c>
-      <c r="AF135">
-        <v>1</v>
+      <c r="AF135" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:32">
@@ -14150,7 +14165,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
@@ -14162,10 +14177,10 @@
         <v>35</v>
       </c>
       <c r="G136" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H136" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I136" t="s">
         <v>38</v>
@@ -14186,7 +14201,7 @@
         <v>2707</v>
       </c>
       <c r="O136" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P136" t="s">
         <v>40</v>
@@ -14236,8 +14251,8 @@
       <c r="AE136" s="3">
         <v>0</v>
       </c>
-      <c r="AF136">
-        <v>0</v>
+      <c r="AF136" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:32">
@@ -14248,7 +14263,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D137" t="s">
         <v>33</v>
@@ -14260,10 +14275,10 @@
         <v>40</v>
       </c>
       <c r="G137" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H137" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I137" t="s">
         <v>38</v>
@@ -14284,7 +14299,7 @@
         <v>2758</v>
       </c>
       <c r="O137" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P137" t="s">
         <v>40</v>
@@ -14334,8 +14349,8 @@
       <c r="AE137" s="3">
         <v>0</v>
       </c>
-      <c r="AF137">
-        <v>1</v>
+      <c r="AF137" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="138" spans="1:32">
@@ -14346,22 +14361,22 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D138" t="s">
         <v>33</v>
       </c>
       <c r="E138" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F138" t="s">
         <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H138" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I138" t="s">
         <v>38</v>
@@ -14432,8 +14447,8 @@
       <c r="AE138" s="3">
         <v>0</v>
       </c>
-      <c r="AF138">
-        <v>0</v>
+      <c r="AF138" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:32">
@@ -14444,22 +14459,22 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D139" t="s">
         <v>33</v>
       </c>
       <c r="E139" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F139" t="s">
         <v>40</v>
       </c>
       <c r="G139" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H139" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I139" t="s">
         <v>38</v>
@@ -14530,8 +14545,8 @@
       <c r="AE139" s="3">
         <v>0</v>
       </c>
-      <c r="AF139">
-        <v>4</v>
+      <c r="AF139" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="140" spans="1:32">
@@ -14542,7 +14557,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D140" t="s">
         <v>33</v>
@@ -14554,10 +14569,10 @@
         <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H140" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I140" t="s">
         <v>38</v>
@@ -14578,7 +14593,7 @@
         <v>2050</v>
       </c>
       <c r="O140" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P140" t="s">
         <v>40</v>
@@ -14587,7 +14602,7 @@
         <v>97</v>
       </c>
       <c r="R140" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S140">
         <v>3.62</v>
@@ -14628,8 +14643,8 @@
       <c r="AE140" s="3">
         <v>10410</v>
       </c>
-      <c r="AF140">
-        <v>0</v>
+      <c r="AF140" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="141" spans="1:32">
@@ -14640,7 +14655,7 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D141" t="s">
         <v>33</v>
@@ -14652,10 +14667,10 @@
         <v>35</v>
       </c>
       <c r="G141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H141" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I141" t="s">
         <v>38</v>
@@ -14676,7 +14691,7 @@
         <v>2120</v>
       </c>
       <c r="O141" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P141" t="s">
         <v>40</v>
@@ -14685,7 +14700,7 @@
         <v>108</v>
       </c>
       <c r="R141" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S141">
         <v>3.62</v>
@@ -14726,8 +14741,8 @@
       <c r="AE141" s="3">
         <v>16406</v>
       </c>
-      <c r="AF141">
-        <v>0</v>
+      <c r="AF141" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="142" spans="1:32">
@@ -14738,7 +14753,7 @@
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D142" t="s">
         <v>33</v>
@@ -14750,10 +14765,10 @@
         <v>35</v>
       </c>
       <c r="G142" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H142" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I142" t="s">
         <v>38</v>
@@ -14774,7 +14789,7 @@
         <v>2240</v>
       </c>
       <c r="O142" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P142" t="s">
         <v>40</v>
@@ -14783,7 +14798,7 @@
         <v>108</v>
       </c>
       <c r="R142" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S142">
         <v>3.62</v>
@@ -14824,8 +14839,8 @@
       <c r="AE142" s="3">
         <v>8059</v>
       </c>
-      <c r="AF142">
-        <v>0</v>
+      <c r="AF142" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="143" spans="1:32">
@@ -14836,7 +14851,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D143" t="s">
         <v>33</v>
@@ -14848,10 +14863,10 @@
         <v>40</v>
       </c>
       <c r="G143" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H143" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I143" t="s">
         <v>38</v>
@@ -14872,7 +14887,7 @@
         <v>2145</v>
       </c>
       <c r="O143" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P143" t="s">
         <v>40</v>
@@ -14881,7 +14896,7 @@
         <v>108</v>
       </c>
       <c r="R143" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S143">
         <v>3.62</v>
@@ -14922,8 +14937,8 @@
       <c r="AE143" s="3">
         <v>10192</v>
       </c>
-      <c r="AF143">
-        <v>1</v>
+      <c r="AF143" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="144" spans="1:32">
@@ -14934,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D144" t="s">
         <v>33</v>
@@ -14946,10 +14961,10 @@
         <v>40</v>
       </c>
       <c r="G144" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H144" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I144" t="s">
         <v>38</v>
@@ -14970,7 +14985,7 @@
         <v>2190</v>
       </c>
       <c r="O144" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P144" t="s">
         <v>40</v>
@@ -14979,7 +14994,7 @@
         <v>108</v>
       </c>
       <c r="R144" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S144">
         <v>3.62</v>
@@ -15020,8 +15035,8 @@
       <c r="AE144" s="3">
         <v>10755</v>
       </c>
-      <c r="AF144">
-        <v>1</v>
+      <c r="AF144" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="145" spans="1:32">
@@ -15032,7 +15047,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D145" t="s">
         <v>33</v>
@@ -15044,10 +15059,10 @@
         <v>40</v>
       </c>
       <c r="G145" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H145" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I145" t="s">
         <v>38</v>
@@ -15068,7 +15083,7 @@
         <v>2340</v>
       </c>
       <c r="O145" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P145" t="s">
         <v>40</v>
@@ -15118,8 +15133,8 @@
       <c r="AE145" s="3">
         <v>0</v>
       </c>
-      <c r="AF145">
-        <v>1</v>
+      <c r="AF145" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:32">
@@ -15130,7 +15145,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D146" t="s">
         <v>33</v>
@@ -15142,10 +15157,10 @@
         <v>40</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H146" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I146" t="s">
         <v>38</v>
@@ -15166,7 +15181,7 @@
         <v>2385</v>
       </c>
       <c r="O146" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P146" t="s">
         <v>40</v>
@@ -15175,7 +15190,7 @@
         <v>108</v>
       </c>
       <c r="R146" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S146">
         <v>3.62</v>
@@ -15216,8 +15231,8 @@
       <c r="AE146" s="3">
         <v>0</v>
       </c>
-      <c r="AF146">
-        <v>1</v>
+      <c r="AF146" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:32">
@@ -15228,22 +15243,22 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D147" t="s">
         <v>33</v>
       </c>
       <c r="E147" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F147" t="s">
         <v>40</v>
       </c>
       <c r="G147" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H147" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I147" t="s">
         <v>38</v>
@@ -15264,7 +15279,7 @@
         <v>2510</v>
       </c>
       <c r="O147" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P147" t="s">
         <v>40</v>
@@ -15314,8 +15329,8 @@
       <c r="AE147" s="3">
         <v>0</v>
       </c>
-      <c r="AF147">
-        <v>1</v>
+      <c r="AF147" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:32">
@@ -15326,7 +15341,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D148" t="s">
         <v>33</v>
@@ -15338,10 +15353,10 @@
         <v>40</v>
       </c>
       <c r="G148" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H148" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I148" t="s">
         <v>38</v>
@@ -15362,7 +15377,7 @@
         <v>2290</v>
       </c>
       <c r="O148" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P148" t="s">
         <v>40</v>
@@ -15371,7 +15386,7 @@
         <v>108</v>
       </c>
       <c r="R148" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S148">
         <v>3.62</v>
@@ -15412,8 +15427,8 @@
       <c r="AE148" s="3">
         <v>0</v>
       </c>
-      <c r="AF148">
-        <v>2</v>
+      <c r="AF148" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="149" spans="1:32">
@@ -15424,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D149" t="s">
         <v>33</v>
@@ -15436,10 +15451,10 @@
         <v>40</v>
       </c>
       <c r="G149" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H149" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I149" t="s">
         <v>38</v>
@@ -15460,7 +15475,7 @@
         <v>2455</v>
       </c>
       <c r="O149" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P149" t="s">
         <v>40</v>
@@ -15510,8 +15525,8 @@
       <c r="AE149" s="3">
         <v>0</v>
       </c>
-      <c r="AF149">
-        <v>2</v>
+      <c r="AF149" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:32">
@@ -15522,7 +15537,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D150" t="s">
         <v>33</v>
@@ -15534,10 +15549,10 @@
         <v>40</v>
       </c>
       <c r="G150" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H150" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I150" t="s">
         <v>38</v>
@@ -15558,7 +15573,7 @@
         <v>2420</v>
       </c>
       <c r="O150" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P150" t="s">
         <v>40</v>
@@ -15567,7 +15582,7 @@
         <v>108</v>
       </c>
       <c r="R150" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S150">
         <v>3.62</v>
@@ -15608,8 +15623,8 @@
       <c r="AE150" s="3">
         <v>10755</v>
       </c>
-      <c r="AF150">
-        <v>2</v>
+      <c r="AF150" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:32">
@@ -15620,22 +15635,22 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D151" t="s">
         <v>33</v>
       </c>
       <c r="E151" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F151" t="s">
         <v>40</v>
       </c>
       <c r="G151" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H151" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I151" t="s">
         <v>38</v>
@@ -15656,7 +15671,7 @@
         <v>2650</v>
       </c>
       <c r="O151" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="P151" t="s">
         <v>40</v>
@@ -15706,8 +15721,8 @@
       <c r="AE151" s="3">
         <v>10755</v>
       </c>
-      <c r="AF151">
-        <v>2</v>
+      <c r="AF151" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="152" spans="1:32">
@@ -15718,7 +15733,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D152" t="s">
         <v>33</v>
@@ -15730,10 +15745,10 @@
         <v>35</v>
       </c>
       <c r="G152" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H152" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I152" t="s">
         <v>38</v>
@@ -15754,7 +15769,7 @@
         <v>1985</v>
       </c>
       <c r="O152" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P152" t="s">
         <v>40</v>
@@ -15763,7 +15778,7 @@
         <v>92</v>
       </c>
       <c r="R152" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S152">
         <v>3.05</v>
@@ -15804,8 +15819,8 @@
       <c r="AE152" s="3">
         <v>0</v>
       </c>
-      <c r="AF152">
-        <v>0</v>
+      <c r="AF152" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="153" spans="1:32">
@@ -15816,7 +15831,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D153" t="s">
         <v>33</v>
@@ -15828,10 +15843,10 @@
         <v>35</v>
       </c>
       <c r="G153" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H153" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I153" t="s">
         <v>38</v>
@@ -15852,7 +15867,7 @@
         <v>2040</v>
       </c>
       <c r="O153" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P153" t="s">
         <v>40</v>
@@ -15861,7 +15876,7 @@
         <v>92</v>
       </c>
       <c r="R153" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S153">
         <v>3.05</v>
@@ -15902,8 +15917,8 @@
       <c r="AE153" s="3">
         <v>0</v>
       </c>
-      <c r="AF153">
-        <v>0</v>
+      <c r="AF153" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:32">
@@ -15914,7 +15929,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D154" t="s">
         <v>33</v>
@@ -15926,10 +15941,10 @@
         <v>40</v>
       </c>
       <c r="G154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H154" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I154" t="s">
         <v>38</v>
@@ -15950,7 +15965,7 @@
         <v>2015</v>
       </c>
       <c r="O154" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P154" t="s">
         <v>40</v>
@@ -15959,7 +15974,7 @@
         <v>92</v>
       </c>
       <c r="R154" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S154">
         <v>3.05</v>
@@ -16000,8 +16015,8 @@
       <c r="AE154" s="3">
         <v>428567</v>
       </c>
-      <c r="AF154">
-        <v>0</v>
+      <c r="AF154" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:32">
@@ -16012,7 +16027,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D155" t="s">
         <v>33</v>
@@ -16024,10 +16039,10 @@
         <v>40</v>
       </c>
       <c r="G155" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H155" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I155" t="s">
         <v>38</v>
@@ -16048,7 +16063,7 @@
         <v>2280</v>
       </c>
       <c r="O155" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P155" t="s">
         <v>40</v>
@@ -16057,7 +16072,7 @@
         <v>92</v>
       </c>
       <c r="R155" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S155">
         <v>3.05</v>
@@ -16098,8 +16113,8 @@
       <c r="AE155" s="3">
         <v>0</v>
       </c>
-      <c r="AF155">
-        <v>2</v>
+      <c r="AF155" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="156" spans="1:32">
@@ -16110,7 +16125,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D156" t="s">
         <v>33</v>
@@ -16122,10 +16137,10 @@
         <v>40</v>
       </c>
       <c r="G156" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H156" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I156" t="s">
         <v>38</v>
@@ -16146,7 +16161,7 @@
         <v>2290</v>
       </c>
       <c r="O156" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P156" t="s">
         <v>40</v>
@@ -16155,7 +16170,7 @@
         <v>92</v>
       </c>
       <c r="R156" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S156">
         <v>3.05</v>
@@ -16196,8 +16211,8 @@
       <c r="AE156" s="3">
         <v>892671</v>
       </c>
-      <c r="AF156">
-        <v>2</v>
+      <c r="AF156" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="157" spans="1:32">
@@ -16208,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D157" t="s">
         <v>33</v>
@@ -16220,10 +16235,10 @@
         <v>40</v>
       </c>
       <c r="G157" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H157" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I157" t="s">
         <v>38</v>
@@ -16244,7 +16259,7 @@
         <v>3110</v>
       </c>
       <c r="O157" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P157" t="s">
         <v>40</v>
@@ -16253,7 +16268,7 @@
         <v>92</v>
       </c>
       <c r="R157" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S157">
         <v>3.05</v>
@@ -16294,8 +16309,8 @@
       <c r="AE157" s="3">
         <v>0</v>
       </c>
-      <c r="AF157">
-        <v>2</v>
+      <c r="AF157" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="158" spans="1:32">
@@ -16306,7 +16321,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D158" t="s">
         <v>33</v>
@@ -16318,10 +16333,10 @@
         <v>40</v>
       </c>
       <c r="G158" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H158" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I158" t="s">
         <v>38</v>
@@ -16342,7 +16357,7 @@
         <v>2081</v>
       </c>
       <c r="O158" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P158" t="s">
         <v>40</v>
@@ -16351,7 +16366,7 @@
         <v>98</v>
       </c>
       <c r="R158" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S158">
         <v>3.19</v>
@@ -16392,8 +16407,8 @@
       <c r="AE158" s="3">
         <v>0</v>
       </c>
-      <c r="AF158">
-        <v>1</v>
+      <c r="AF158" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:32">
@@ -16404,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D159" t="s">
         <v>33</v>
@@ -16416,10 +16431,10 @@
         <v>40</v>
       </c>
       <c r="G159" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H159" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I159" t="s">
         <v>38</v>
@@ -16440,7 +16455,7 @@
         <v>2109</v>
       </c>
       <c r="O159" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P159" t="s">
         <v>40</v>
@@ -16449,7 +16464,7 @@
         <v>98</v>
       </c>
       <c r="R159" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S159">
         <v>3.19</v>
@@ -16490,8 +16505,8 @@
       <c r="AE159" s="3">
         <v>428567</v>
       </c>
-      <c r="AF159">
-        <v>0</v>
+      <c r="AF159" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:32">
@@ -16502,10 +16517,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D160" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E160" t="s">
         <v>34</v>
@@ -16514,10 +16529,10 @@
         <v>40</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H160" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I160" t="s">
         <v>38</v>
@@ -16538,7 +16553,7 @@
         <v>2275</v>
       </c>
       <c r="O160" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P160" t="s">
         <v>40</v>
@@ -16547,7 +16562,7 @@
         <v>110</v>
       </c>
       <c r="R160" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S160">
         <v>3.27</v>
@@ -16588,8 +16603,8 @@
       <c r="AE160" s="3">
         <v>0</v>
       </c>
-      <c r="AF160">
-        <v>1</v>
+      <c r="AF160" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:32">
@@ -16600,10 +16615,10 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D161" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E161" t="s">
         <v>34</v>
@@ -16612,10 +16627,10 @@
         <v>40</v>
       </c>
       <c r="G161" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H161" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I161" t="s">
         <v>38</v>
@@ -16636,7 +16651,7 @@
         <v>2275</v>
       </c>
       <c r="O161" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P161" t="s">
         <v>40</v>
@@ -16645,7 +16660,7 @@
         <v>110</v>
       </c>
       <c r="R161" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S161">
         <v>3.27</v>
@@ -16686,8 +16701,8 @@
       <c r="AE161" s="3">
         <v>428567</v>
       </c>
-      <c r="AF161">
-        <v>0</v>
+      <c r="AF161" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:32">
@@ -16698,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D162" t="s">
         <v>33</v>
@@ -16710,10 +16725,10 @@
         <v>40</v>
       </c>
       <c r="G162" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H162" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I162" t="s">
         <v>38</v>
@@ -16734,7 +16749,7 @@
         <v>2094</v>
       </c>
       <c r="O162" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P162" t="s">
         <v>40</v>
@@ -16743,7 +16758,7 @@
         <v>98</v>
       </c>
       <c r="R162" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S162">
         <v>3.19</v>
@@ -16784,8 +16799,8 @@
       <c r="AE162" s="3">
         <v>0</v>
       </c>
-      <c r="AF162">
-        <v>1</v>
+      <c r="AF162" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="163" spans="1:32">
@@ -16796,7 +16811,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D163" t="s">
         <v>33</v>
@@ -16808,10 +16823,10 @@
         <v>40</v>
       </c>
       <c r="G163" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H163" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I163" t="s">
         <v>38</v>
@@ -16832,7 +16847,7 @@
         <v>2122</v>
       </c>
       <c r="O163" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P163" t="s">
         <v>40</v>
@@ -16841,7 +16856,7 @@
         <v>98</v>
       </c>
       <c r="R163" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S163">
         <v>3.19</v>
@@ -16882,8 +16897,8 @@
       <c r="AE163" s="3">
         <v>428567</v>
       </c>
-      <c r="AF163">
-        <v>0</v>
+      <c r="AF163" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="164" spans="1:32">
@@ -16894,7 +16909,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D164" t="s">
         <v>33</v>
@@ -16906,10 +16921,10 @@
         <v>40</v>
       </c>
       <c r="G164" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H164" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I164" t="s">
         <v>38</v>
@@ -16930,7 +16945,7 @@
         <v>2140</v>
       </c>
       <c r="O164" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P164" t="s">
         <v>40</v>
@@ -16939,7 +16954,7 @@
         <v>98</v>
       </c>
       <c r="R164" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S164">
         <v>3.19</v>
@@ -16980,8 +16995,8 @@
       <c r="AE164" s="3">
         <v>0</v>
       </c>
-      <c r="AF164">
-        <v>1</v>
+      <c r="AF164" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="165" spans="1:32">
@@ -16992,7 +17007,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D165" t="s">
         <v>33</v>
@@ -17004,7 +17019,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H165" t="s">
         <v>37</v>
@@ -17028,7 +17043,7 @@
         <v>2169</v>
       </c>
       <c r="O165" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P165" t="s">
         <v>40</v>
@@ -17037,7 +17052,7 @@
         <v>98</v>
       </c>
       <c r="R165" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S165">
         <v>3.19</v>
@@ -17078,8 +17093,8 @@
       <c r="AE165" s="3">
         <v>428567</v>
       </c>
-      <c r="AF165">
-        <v>1</v>
+      <c r="AF165" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="166" spans="1:32">
@@ -17090,7 +17105,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D166" t="s">
         <v>33</v>
@@ -17102,7 +17117,7 @@
         <v>35</v>
       </c>
       <c r="G166" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H166" t="s">
         <v>37</v>
@@ -17126,7 +17141,7 @@
         <v>2204</v>
       </c>
       <c r="O166" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P166" t="s">
         <v>40</v>
@@ -17135,7 +17150,7 @@
         <v>98</v>
       </c>
       <c r="R166" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S166">
         <v>3.19</v>
@@ -17176,8 +17191,8 @@
       <c r="AE166" s="3">
         <v>0</v>
       </c>
-      <c r="AF166">
-        <v>0</v>
+      <c r="AF166" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="167" spans="1:32">
@@ -17188,7 +17203,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D167" t="s">
         <v>33</v>
@@ -17200,7 +17215,7 @@
         <v>35</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H167" t="s">
         <v>37</v>
@@ -17274,8 +17289,8 @@
       <c r="AE167" s="3">
         <v>0</v>
       </c>
-      <c r="AF167">
-        <v>1</v>
+      <c r="AF167" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="168" spans="1:32">
@@ -17286,7 +17301,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D168" t="s">
         <v>33</v>
@@ -17298,7 +17313,7 @@
         <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H168" t="s">
         <v>37</v>
@@ -17372,8 +17387,8 @@
       <c r="AE168" s="3">
         <v>0</v>
       </c>
-      <c r="AF168">
-        <v>0</v>
+      <c r="AF168" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="169" spans="1:32">
@@ -17384,7 +17399,7 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D169" t="s">
         <v>33</v>
@@ -17396,7 +17411,7 @@
         <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H169" t="s">
         <v>37</v>
@@ -17420,7 +17435,7 @@
         <v>2540</v>
       </c>
       <c r="O169" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P169" t="s">
         <v>40</v>
@@ -17470,8 +17485,8 @@
       <c r="AE169" s="3">
         <v>0</v>
       </c>
-      <c r="AF169">
-        <v>2</v>
+      <c r="AF169" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="170" spans="1:32">
@@ -17482,7 +17497,7 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D170" t="s">
         <v>33</v>
@@ -17494,7 +17509,7 @@
         <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H170" t="s">
         <v>37</v>
@@ -17518,7 +17533,7 @@
         <v>2536</v>
       </c>
       <c r="O170" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P170" t="s">
         <v>40</v>
@@ -17568,8 +17583,8 @@
       <c r="AE170" s="3">
         <v>428567</v>
       </c>
-      <c r="AF170">
-        <v>2</v>
+      <c r="AF170" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:32">
@@ -17580,7 +17595,7 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D171" t="s">
         <v>33</v>
@@ -17592,7 +17607,7 @@
         <v>35</v>
       </c>
       <c r="G171" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H171" t="s">
         <v>37</v>
@@ -17616,7 +17631,7 @@
         <v>2551</v>
       </c>
       <c r="O171" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P171" t="s">
         <v>40</v>
@@ -17666,8 +17681,8 @@
       <c r="AE171" s="3">
         <v>0</v>
       </c>
-      <c r="AF171">
-        <v>0</v>
+      <c r="AF171" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:32">
@@ -17678,7 +17693,7 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D172" t="s">
         <v>33</v>
@@ -17690,7 +17705,7 @@
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="H172" t="s">
         <v>37</v>
@@ -17714,7 +17729,7 @@
         <v>2679</v>
       </c>
       <c r="O172" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P172" t="s">
         <v>40</v>
@@ -17764,8 +17779,8 @@
       <c r="AE172" s="3">
         <v>0</v>
       </c>
-      <c r="AF172">
-        <v>2</v>
+      <c r="AF172" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="173" spans="1:32">
@@ -17776,7 +17791,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D173" t="s">
         <v>33</v>
@@ -17788,7 +17803,7 @@
         <v>35</v>
       </c>
       <c r="G173" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H173" t="s">
         <v>37</v>
@@ -17812,7 +17827,7 @@
         <v>2714</v>
       </c>
       <c r="O173" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P173" t="s">
         <v>40</v>
@@ -17862,8 +17877,8 @@
       <c r="AE173" s="3">
         <v>428567</v>
       </c>
-      <c r="AF173">
-        <v>0</v>
+      <c r="AF173" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="174" spans="1:32">
@@ -17874,7 +17889,7 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="D174" t="s">
         <v>33</v>
@@ -17910,7 +17925,7 @@
         <v>2975</v>
       </c>
       <c r="O174" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P174" t="s">
         <v>40</v>
@@ -17960,8 +17975,8 @@
       <c r="AE174" s="3">
         <v>0</v>
       </c>
-      <c r="AF174">
-        <v>3</v>
+      <c r="AF174" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="175" spans="1:32">
@@ -17972,7 +17987,7 @@
         <v>-1</v>
       </c>
       <c r="C175" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D175" t="s">
         <v>33</v>
@@ -17984,10 +17999,10 @@
         <v>40</v>
       </c>
       <c r="G175" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H175" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I175" t="s">
         <v>38</v>
@@ -18008,7 +18023,7 @@
         <v>2326</v>
       </c>
       <c r="O175" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P175" t="s">
         <v>40</v>
@@ -18058,8 +18073,8 @@
       <c r="AE175" s="3">
         <v>428567</v>
       </c>
-      <c r="AF175">
-        <v>1</v>
+      <c r="AF175" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="176" spans="1:32">
@@ -18070,22 +18085,22 @@
         <v>-1</v>
       </c>
       <c r="C176" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D176" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E176" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F176" t="s">
         <v>40</v>
       </c>
       <c r="G176" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H176" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I176" t="s">
         <v>38</v>
@@ -18106,7 +18121,7 @@
         <v>2480</v>
       </c>
       <c r="O176" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P176" t="s">
         <v>40</v>
@@ -18115,7 +18130,7 @@
         <v>110</v>
       </c>
       <c r="R176" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S176">
         <v>3.27</v>
@@ -18156,8 +18171,8 @@
       <c r="AE176" s="3">
         <v>0</v>
       </c>
-      <c r="AF176">
-        <v>1</v>
+      <c r="AF176" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="177" spans="1:32">
@@ -18168,7 +18183,7 @@
         <v>-1</v>
       </c>
       <c r="C177" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D177" t="s">
         <v>33</v>
@@ -18180,10 +18195,10 @@
         <v>40</v>
       </c>
       <c r="G177" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H177" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I177" t="s">
         <v>38</v>
@@ -18204,7 +18219,7 @@
         <v>2414</v>
       </c>
       <c r="O177" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P177" t="s">
         <v>40</v>
@@ -18254,8 +18269,8 @@
       <c r="AE177" s="3">
         <v>0</v>
       </c>
-      <c r="AF177">
-        <v>0</v>
+      <c r="AF177" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="178" spans="1:32">
@@ -18266,7 +18281,7 @@
         <v>-1</v>
       </c>
       <c r="C178" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D178" t="s">
         <v>33</v>
@@ -18278,10 +18293,10 @@
         <v>40</v>
       </c>
       <c r="G178" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H178" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I178" t="s">
         <v>38</v>
@@ -18302,7 +18317,7 @@
         <v>2414</v>
       </c>
       <c r="O178" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P178" t="s">
         <v>40</v>
@@ -18352,8 +18367,8 @@
       <c r="AE178" s="3">
         <v>428567</v>
       </c>
-      <c r="AF178">
-        <v>1</v>
+      <c r="AF178" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="179" spans="1:32">
@@ -18364,7 +18379,7 @@
         <v>-1</v>
       </c>
       <c r="C179" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D179" t="s">
         <v>33</v>
@@ -18376,10 +18391,10 @@
         <v>40</v>
       </c>
       <c r="G179" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H179" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I179" t="s">
         <v>38</v>
@@ -18400,7 +18415,7 @@
         <v>2458</v>
       </c>
       <c r="O179" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P179" t="s">
         <v>40</v>
@@ -18450,8 +18465,8 @@
       <c r="AE179" s="3">
         <v>0</v>
       </c>
-      <c r="AF179">
-        <v>0</v>
+      <c r="AF179" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="180" spans="1:32">
@@ -18462,7 +18477,7 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D180" t="s">
         <v>33</v>
@@ -18474,7 +18489,7 @@
         <v>35</v>
       </c>
       <c r="G180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H180" t="s">
         <v>37</v>
@@ -18501,7 +18516,7 @@
         <v>39</v>
       </c>
       <c r="P180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q180">
         <v>171</v>
@@ -18548,8 +18563,8 @@
       <c r="AE180" s="3">
         <v>428567</v>
       </c>
-      <c r="AF180">
-        <v>0</v>
+      <c r="AF180" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="181" spans="1:32">
@@ -18560,7 +18575,7 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D181" t="s">
         <v>33</v>
@@ -18572,7 +18587,7 @@
         <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H181" t="s">
         <v>37</v>
@@ -18599,7 +18614,7 @@
         <v>39</v>
       </c>
       <c r="P181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q181">
         <v>171</v>
@@ -18646,8 +18661,8 @@
       <c r="AE181" s="3">
         <v>0</v>
       </c>
-      <c r="AF181">
-        <v>0</v>
+      <c r="AF181" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="182" spans="1:32">
@@ -18658,7 +18673,7 @@
         <v>-1</v>
       </c>
       <c r="C182" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D182" t="s">
         <v>33</v>
@@ -18670,7 +18685,7 @@
         <v>40</v>
       </c>
       <c r="G182" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H182" t="s">
         <v>37</v>
@@ -18697,7 +18712,7 @@
         <v>39</v>
       </c>
       <c r="P182" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q182">
         <v>171</v>
@@ -18744,8 +18759,8 @@
       <c r="AE182" s="3">
         <v>0</v>
       </c>
-      <c r="AF182">
-        <v>4</v>
+      <c r="AF182" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="183" spans="1:32">
@@ -18756,7 +18771,7 @@
         <v>-1</v>
       </c>
       <c r="C183" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D183" t="s">
         <v>33</v>
@@ -18768,7 +18783,7 @@
         <v>40</v>
       </c>
       <c r="G183" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H183" t="s">
         <v>37</v>
@@ -18795,7 +18810,7 @@
         <v>39</v>
       </c>
       <c r="P183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q183">
         <v>161</v>
@@ -18842,8 +18857,8 @@
       <c r="AE183" s="3">
         <v>0</v>
       </c>
-      <c r="AF183">
-        <v>2</v>
+      <c r="AF183" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="184" spans="1:32">
@@ -18854,10 +18869,10 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D184" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E184" t="s">
         <v>34</v>
@@ -18866,10 +18881,10 @@
         <v>35</v>
       </c>
       <c r="G184" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H184" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I184" t="s">
         <v>38</v>
@@ -18890,7 +18905,7 @@
         <v>2261</v>
       </c>
       <c r="O184" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P184" t="s">
         <v>40</v>
@@ -18899,7 +18914,7 @@
         <v>97</v>
       </c>
       <c r="R184" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S184">
         <v>3.01</v>
@@ -18940,8 +18955,8 @@
       <c r="AE184" s="3">
         <v>0</v>
       </c>
-      <c r="AF184">
-        <v>1</v>
+      <c r="AF184" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="185" spans="1:32">
@@ -18952,7 +18967,7 @@
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D185" t="s">
         <v>33</v>
@@ -18964,10 +18979,10 @@
         <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H185" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I185" t="s">
         <v>38</v>
@@ -18988,7 +19003,7 @@
         <v>2209</v>
       </c>
       <c r="O185" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P185" t="s">
         <v>40</v>
@@ -19038,8 +19053,8 @@
       <c r="AE185" s="3">
         <v>0</v>
       </c>
-      <c r="AF185">
-        <v>1</v>
+      <c r="AF185" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="186" spans="1:32">
@@ -19050,10 +19065,10 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D186" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E186" t="s">
         <v>34</v>
@@ -19062,10 +19077,10 @@
         <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H186" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I186" t="s">
         <v>38</v>
@@ -19086,7 +19101,7 @@
         <v>2264</v>
       </c>
       <c r="O186" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P186" t="s">
         <v>40</v>
@@ -19095,7 +19110,7 @@
         <v>97</v>
       </c>
       <c r="R186" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S186">
         <v>3.01</v>
@@ -19136,8 +19151,8 @@
       <c r="AE186" s="3">
         <v>0</v>
       </c>
-      <c r="AF186">
-        <v>1</v>
+      <c r="AF186" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="187" spans="1:32">
@@ -19148,7 +19163,7 @@
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D187" t="s">
         <v>33</v>
@@ -19160,10 +19175,10 @@
         <v>40</v>
       </c>
       <c r="G187" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H187" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I187" t="s">
         <v>38</v>
@@ -19184,7 +19199,7 @@
         <v>2212</v>
       </c>
       <c r="O187" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P187" t="s">
         <v>40</v>
@@ -19234,8 +19249,8 @@
       <c r="AE187" s="3">
         <v>0</v>
       </c>
-      <c r="AF187">
-        <v>1</v>
+      <c r="AF187" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="188" spans="1:32">
@@ -19246,7 +19261,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D188" t="s">
         <v>33</v>
@@ -19258,10 +19273,10 @@
         <v>40</v>
       </c>
       <c r="G188" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H188" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I188" t="s">
         <v>38</v>
@@ -19282,7 +19297,7 @@
         <v>2275</v>
       </c>
       <c r="O188" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P188" t="s">
         <v>40</v>
@@ -19332,8 +19347,8 @@
       <c r="AE188" s="3">
         <v>0</v>
       </c>
-      <c r="AF188">
-        <v>1</v>
+      <c r="AF188" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="189" spans="1:32">
@@ -19344,22 +19359,22 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="D189" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E189" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F189" t="s">
         <v>40</v>
       </c>
       <c r="G189" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H189" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I189" t="s">
         <v>38</v>
@@ -19380,7 +19395,7 @@
         <v>2319</v>
       </c>
       <c r="O189" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P189" t="s">
         <v>40</v>
@@ -19389,7 +19404,7 @@
         <v>97</v>
       </c>
       <c r="R189" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S189">
         <v>3.01</v>
@@ -19430,8 +19445,8 @@
       <c r="AE189" s="3">
         <v>13788</v>
       </c>
-      <c r="AF189">
-        <v>1</v>
+      <c r="AF189" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="190" spans="1:32">
@@ -19442,7 +19457,7 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D190" t="s">
         <v>33</v>
@@ -19454,10 +19469,10 @@
         <v>40</v>
       </c>
       <c r="G190" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H190" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I190" t="s">
         <v>38</v>
@@ -19478,7 +19493,7 @@
         <v>2300</v>
       </c>
       <c r="O190" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P190" t="s">
         <v>40</v>
@@ -19528,8 +19543,8 @@
       <c r="AE190" s="3">
         <v>0</v>
       </c>
-      <c r="AF190">
-        <v>1</v>
+      <c r="AF190" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="191" spans="1:32">
@@ -19540,7 +19555,7 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="D191" t="s">
         <v>33</v>
@@ -19555,7 +19570,7 @@
         <v>36</v>
       </c>
       <c r="H191" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I191" t="s">
         <v>38</v>
@@ -19576,7 +19591,7 @@
         <v>2254</v>
       </c>
       <c r="O191" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P191" t="s">
         <v>40</v>
@@ -19626,8 +19641,8 @@
       <c r="AE191" s="3">
         <v>0</v>
       </c>
-      <c r="AF191">
-        <v>3</v>
+      <c r="AF191" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="192" spans="1:32">
@@ -19638,7 +19653,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D192" t="s">
         <v>33</v>
@@ -19650,10 +19665,10 @@
         <v>35</v>
       </c>
       <c r="G192" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H192" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I192" t="s">
         <v>38</v>
@@ -19674,7 +19689,7 @@
         <v>2221</v>
       </c>
       <c r="O192" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P192" t="s">
         <v>40</v>
@@ -19724,8 +19739,8 @@
       <c r="AE192" s="3">
         <v>0</v>
       </c>
-      <c r="AF192">
-        <v>0</v>
+      <c r="AF192" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="193" spans="1:32">
@@ -19736,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="D193" t="s">
         <v>33</v>
@@ -19748,10 +19763,10 @@
         <v>40</v>
       </c>
       <c r="G193" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H193" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I193" t="s">
         <v>38</v>
@@ -19772,10 +19787,10 @@
         <v>2661</v>
       </c>
       <c r="O193" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P193" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q193">
         <v>136</v>
@@ -19822,8 +19837,8 @@
       <c r="AE193" s="3">
         <v>0</v>
       </c>
-      <c r="AF193">
-        <v>1</v>
+      <c r="AF193" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="194" spans="1:32">
@@ -19834,22 +19849,22 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D194" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E194" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F194" t="s">
         <v>40</v>
       </c>
       <c r="G194" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H194" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I194" t="s">
         <v>38</v>
@@ -19870,7 +19885,7 @@
         <v>2579</v>
       </c>
       <c r="O194" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P194" t="s">
         <v>40</v>
@@ -19879,7 +19894,7 @@
         <v>97</v>
       </c>
       <c r="R194" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S194">
         <v>3.01</v>
@@ -19920,8 +19935,8 @@
       <c r="AE194" s="3">
         <v>0</v>
       </c>
-      <c r="AF194">
-        <v>1</v>
+      <c r="AF194" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="195" spans="1:32">
@@ -19932,7 +19947,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D195" t="s">
         <v>33</v>
@@ -19944,10 +19959,10 @@
         <v>40</v>
       </c>
       <c r="G195" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H195" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="I195" t="s">
         <v>38</v>
@@ -19968,7 +19983,7 @@
         <v>2563</v>
       </c>
       <c r="O195" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P195" t="s">
         <v>40</v>
@@ -20018,8 +20033,8 @@
       <c r="AE195" s="3">
         <v>0</v>
       </c>
-      <c r="AF195">
-        <v>2</v>
+      <c r="AF195" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="196" spans="1:32">
@@ -20030,7 +20045,7 @@
         <v>-2</v>
       </c>
       <c r="C196" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D196" t="s">
         <v>33</v>
@@ -20042,7 +20057,7 @@
         <v>40</v>
       </c>
       <c r="G196" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H196" t="s">
         <v>37</v>
@@ -20066,7 +20081,7 @@
         <v>2912</v>
       </c>
       <c r="O196" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P196" t="s">
         <v>40</v>
@@ -20116,8 +20131,8 @@
       <c r="AE196" s="3">
         <v>0</v>
       </c>
-      <c r="AF196">
-        <v>1</v>
+      <c r="AF196" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="197" spans="1:32">
@@ -20128,7 +20143,7 @@
         <v>-1</v>
       </c>
       <c r="C197" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D197" t="s">
         <v>33</v>
@@ -20140,7 +20155,7 @@
         <v>40</v>
       </c>
       <c r="G197" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H197" t="s">
         <v>37</v>
@@ -20164,7 +20179,7 @@
         <v>3034</v>
       </c>
       <c r="O197" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P197" t="s">
         <v>40</v>
@@ -20214,8 +20229,8 @@
       <c r="AE197" s="3">
         <v>0</v>
       </c>
-      <c r="AF197">
-        <v>2</v>
+      <c r="AF197" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="198" spans="1:32">
@@ -20226,7 +20241,7 @@
         <v>-2</v>
       </c>
       <c r="C198" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D198" t="s">
         <v>33</v>
@@ -20238,7 +20253,7 @@
         <v>40</v>
       </c>
       <c r="G198" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H198" t="s">
         <v>37</v>
@@ -20262,7 +20277,7 @@
         <v>2935</v>
       </c>
       <c r="O198" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P198" t="s">
         <v>40</v>
@@ -20312,8 +20327,8 @@
       <c r="AE198" s="3">
         <v>0</v>
       </c>
-      <c r="AF198">
-        <v>1</v>
+      <c r="AF198" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="199" spans="1:32">
@@ -20324,7 +20339,7 @@
         <v>-1</v>
       </c>
       <c r="C199" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D199" t="s">
         <v>33</v>
@@ -20336,7 +20351,7 @@
         <v>40</v>
       </c>
       <c r="G199" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H199" t="s">
         <v>37</v>
@@ -20360,7 +20375,7 @@
         <v>3042</v>
       </c>
       <c r="O199" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P199" t="s">
         <v>40</v>
@@ -20410,8 +20425,8 @@
       <c r="AE199" s="3">
         <v>0</v>
       </c>
-      <c r="AF199">
-        <v>2</v>
+      <c r="AF199" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="200" spans="1:32">
@@ -20422,19 +20437,19 @@
         <v>-2</v>
       </c>
       <c r="C200" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D200" t="s">
         <v>33</v>
       </c>
       <c r="E200" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F200" t="s">
         <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H200" t="s">
         <v>37</v>
@@ -20458,7 +20473,7 @@
         <v>3045</v>
       </c>
       <c r="O200" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P200" t="s">
         <v>40</v>
@@ -20508,8 +20523,8 @@
       <c r="AE200" s="3">
         <v>0</v>
       </c>
-      <c r="AF200">
-        <v>4</v>
+      <c r="AF200" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="201" spans="1:32">
@@ -20520,19 +20535,19 @@
         <v>-1</v>
       </c>
       <c r="C201" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D201" t="s">
         <v>33</v>
       </c>
       <c r="E201" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F201" t="s">
         <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H201" t="s">
         <v>37</v>
@@ -20556,7 +20571,7 @@
         <v>3157</v>
       </c>
       <c r="O201" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P201" t="s">
         <v>40</v>
@@ -20606,8 +20621,8 @@
       <c r="AE201" s="3">
         <v>0</v>
       </c>
-      <c r="AF201">
-        <v>2</v>
+      <c r="AF201" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="202" spans="1:32">
@@ -20618,7 +20633,7 @@
         <v>-1</v>
       </c>
       <c r="C202" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D202" t="s">
         <v>33</v>
@@ -20630,7 +20645,7 @@
         <v>40</v>
       </c>
       <c r="G202" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H202" t="s">
         <v>37</v>
@@ -20654,7 +20669,7 @@
         <v>2952</v>
       </c>
       <c r="O202" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P202" t="s">
         <v>40</v>
@@ -20704,8 +20719,8 @@
       <c r="AE202" s="3">
         <v>0</v>
       </c>
-      <c r="AF202">
-        <v>1</v>
+      <c r="AF202" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="203" spans="1:32">
@@ -20716,19 +20731,19 @@
         <v>-1</v>
       </c>
       <c r="C203" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D203" t="s">
         <v>33</v>
       </c>
       <c r="E203" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F203" t="s">
         <v>40</v>
       </c>
       <c r="G203" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H203" t="s">
         <v>37</v>
@@ -20752,7 +20767,7 @@
         <v>3049</v>
       </c>
       <c r="O203" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P203" t="s">
         <v>40</v>
@@ -20802,8 +20817,8 @@
       <c r="AE203" s="3">
         <v>0</v>
       </c>
-      <c r="AF203">
-        <v>4</v>
+      <c r="AF203" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="204" spans="1:32">
@@ -20814,7 +20829,7 @@
         <v>-1</v>
       </c>
       <c r="C204" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="D204" t="s">
         <v>33</v>
@@ -20826,7 +20841,7 @@
         <v>40</v>
       </c>
       <c r="G204" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H204" t="s">
         <v>37</v>
@@ -20850,10 +20865,10 @@
         <v>3012</v>
       </c>
       <c r="O204" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q204">
         <v>173</v>
@@ -20900,8 +20915,8 @@
       <c r="AE204" s="3">
         <v>0</v>
       </c>
-      <c r="AF204">
-        <v>4</v>
+      <c r="AF204" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="205" spans="1:32">
@@ -20912,19 +20927,19 @@
         <v>-1</v>
       </c>
       <c r="C205" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="D205" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E205" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F205" t="s">
         <v>40</v>
       </c>
       <c r="G205" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H205" t="s">
         <v>37</v>
@@ -20948,16 +20963,16 @@
         <v>3217</v>
       </c>
       <c r="O205" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q205">
         <v>145</v>
       </c>
       <c r="R205" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="S205">
         <v>3.01</v>
@@ -20998,8 +21013,8 @@
       <c r="AE205" s="3">
         <v>0</v>
       </c>
-      <c r="AF205">
-        <v>1</v>
+      <c r="AF205" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="206" spans="1:32">
@@ -21010,19 +21025,19 @@
         <v>-1</v>
       </c>
       <c r="C206" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D206" t="s">
         <v>33</v>
       </c>
       <c r="E206" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F206" t="s">
         <v>40</v>
       </c>
       <c r="G206" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H206" t="s">
         <v>37</v>
@@ -21046,7 +21061,7 @@
         <v>3062</v>
       </c>
       <c r="O206" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P206" t="s">
         <v>40</v>
@@ -21096,8 +21111,8 @@
       <c r="AE206" s="3">
         <v>0</v>
       </c>
-      <c r="AF206">
-        <v>4</v>
+      <c r="AF206" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/Datasets/dataset_complete_cluster.xlsx
+++ b/data/Datasets/dataset_complete_cluster.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25318"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FCA722C-80E0-458D-BB77-795A20FA733E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59071EFA-E8C8-4EF4-9402-0EE2D4DC4A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2308" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2287" uniqueCount="220">
   <si>
     <t>car_ID</t>
   </si>
@@ -297,10 +297,6 @@
   </si>
   <si>
     <t>honda civic cvcc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
   </si>
   <si>
     <t>honda accord cvcc</t>
@@ -1170,8 +1166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="P174" workbookViewId="0">
+      <selection activeCell="AE132" sqref="AE132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4315,7 +4311,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="33.75">
+    <row r="33" spans="1:32" ht="14.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4394,14 +4390,14 @@
       <c r="Z33">
         <v>6855</v>
       </c>
-      <c r="AE33" s="4" t="s">
-        <v>90</v>
+      <c r="AE33" s="4">
+        <v>0</v>
       </c>
       <c r="AF33" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="33.75">
+    <row r="34" spans="1:32" ht="14.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4480,8 +4476,8 @@
       <c r="Z34">
         <v>5399</v>
       </c>
-      <c r="AE34" s="4" t="s">
-        <v>90</v>
+      <c r="AE34" s="4">
+        <v>0</v>
       </c>
       <c r="AF34" t="s">
         <v>48</v>
@@ -4495,7 +4491,7 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>33</v>
@@ -4585,7 +4581,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="33.75">
+    <row r="36" spans="1:32" ht="14.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4664,8 +4660,8 @@
       <c r="Z36">
         <v>7129</v>
       </c>
-      <c r="AE36" s="4" t="s">
-        <v>90</v>
+      <c r="AE36" s="4">
+        <v>0</v>
       </c>
       <c r="AF36" t="s">
         <v>48</v>
@@ -4679,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D37" t="s">
         <v>33</v>
@@ -4769,7 +4765,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="33.75">
+    <row r="38" spans="1:32" ht="14.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4777,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" t="s">
         <v>33</v>
@@ -4848,14 +4844,14 @@
       <c r="Z38">
         <v>7295</v>
       </c>
-      <c r="AE38" s="4" t="s">
-        <v>90</v>
+      <c r="AE38" s="4">
+        <v>0</v>
       </c>
       <c r="AF38" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="33.75">
+    <row r="39" spans="1:32" ht="14.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4863,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
         <v>33</v>
@@ -4934,14 +4930,14 @@
       <c r="Z39">
         <v>7895</v>
       </c>
-      <c r="AE39" s="4" t="s">
-        <v>90</v>
+      <c r="AE39" s="4">
+        <v>0</v>
       </c>
       <c r="AF39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="33.75">
+    <row r="40" spans="1:32" ht="14.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4949,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>33</v>
@@ -5020,8 +5016,8 @@
       <c r="Z40">
         <v>9095</v>
       </c>
-      <c r="AE40" s="4" t="s">
-        <v>90</v>
+      <c r="AE40" s="4">
+        <v>0</v>
       </c>
       <c r="AF40" t="s">
         <v>48</v>
@@ -5035,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
         <v>33</v>
@@ -5125,7 +5121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="33.75">
+    <row r="42" spans="1:32" ht="14.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5133,7 +5129,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
         <v>33</v>
@@ -5204,14 +5200,14 @@
       <c r="Z42">
         <v>10295</v>
       </c>
-      <c r="AE42" s="4" t="s">
-        <v>90</v>
+      <c r="AE42" s="4">
+        <v>0</v>
       </c>
       <c r="AF42" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="33.75">
+    <row r="43" spans="1:32" ht="14.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5290,8 +5286,8 @@
       <c r="Z43">
         <v>12945</v>
       </c>
-      <c r="AE43" s="4" t="s">
-        <v>90</v>
+      <c r="AE43" s="4">
+        <v>0</v>
       </c>
       <c r="AF43" t="s">
         <v>53</v>
@@ -5305,7 +5301,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D44" t="s">
         <v>33</v>
@@ -5403,7 +5399,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -5501,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D46" t="s">
         <v>33</v>
@@ -5599,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D47" t="s">
         <v>33</v>
@@ -5697,7 +5693,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D48" t="s">
         <v>33</v>
@@ -5742,7 +5738,7 @@
         <v>119</v>
       </c>
       <c r="R48" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S48">
         <v>3.43</v>
@@ -5795,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D49" t="s">
         <v>33</v>
@@ -5893,7 +5889,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D50" t="s">
         <v>33</v>
@@ -5991,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
         <v>33</v>
@@ -6030,7 +6026,7 @@
         <v>46</v>
       </c>
       <c r="P51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q51">
         <v>326</v>
@@ -6089,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
         <v>33</v>
@@ -6187,7 +6183,7 @@
         <v>1</v>
       </c>
       <c r="C53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D53" t="s">
         <v>33</v>
@@ -6285,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
         <v>33</v>
@@ -6383,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>33</v>
@@ -6481,7 +6477,7 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
         <v>33</v>
@@ -6579,7 +6575,7 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
         <v>33</v>
@@ -6615,7 +6611,7 @@
         <v>2380</v>
       </c>
       <c r="O57" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P57" t="s">
         <v>35</v>
@@ -6624,7 +6620,7 @@
         <v>70</v>
       </c>
       <c r="R57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S57">
         <v>3.33</v>
@@ -6669,7 +6665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="33.75">
+    <row r="58" spans="1:32" ht="14.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6677,7 +6673,7 @@
         <v>3</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
         <v>33</v>
@@ -6713,7 +6709,7 @@
         <v>2380</v>
       </c>
       <c r="O58" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P58" t="s">
         <v>35</v>
@@ -6722,7 +6718,7 @@
         <v>70</v>
       </c>
       <c r="R58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S58">
         <v>3.33</v>
@@ -6748,8 +6744,8 @@
       <c r="Z58">
         <v>11845</v>
       </c>
-      <c r="AE58" s="4" t="s">
-        <v>90</v>
+      <c r="AE58" s="4">
+        <v>0</v>
       </c>
       <c r="AF58" t="s">
         <v>48</v>
@@ -6763,7 +6759,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
         <v>33</v>
@@ -6799,7 +6795,7 @@
         <v>2385</v>
       </c>
       <c r="O59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P59" t="s">
         <v>35</v>
@@ -6808,7 +6804,7 @@
         <v>70</v>
       </c>
       <c r="R59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S59">
         <v>3.33</v>
@@ -6861,7 +6857,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
         <v>33</v>
@@ -6897,7 +6893,7 @@
         <v>2500</v>
       </c>
       <c r="O60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P60" t="s">
         <v>35</v>
@@ -6959,7 +6955,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
         <v>33</v>
@@ -7049,7 +7045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="33.75">
+    <row r="62" spans="1:32" ht="14.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7057,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
         <v>33</v>
@@ -7128,14 +7124,14 @@
       <c r="Z62">
         <v>8495</v>
       </c>
-      <c r="AE62" s="4" t="s">
-        <v>90</v>
+      <c r="AE62" s="4">
+        <v>0</v>
       </c>
       <c r="AF62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="33.75">
+    <row r="63" spans="1:32" ht="14.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7143,7 +7139,7 @@
         <v>1</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
@@ -7214,8 +7210,8 @@
       <c r="Z63">
         <v>10595</v>
       </c>
-      <c r="AE63" s="4" t="s">
-        <v>90</v>
+      <c r="AE63" s="4">
+        <v>0</v>
       </c>
       <c r="AF63" t="s">
         <v>48</v>
@@ -7229,7 +7225,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
@@ -7327,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
@@ -7372,7 +7368,7 @@
         <v>122</v>
       </c>
       <c r="R65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S65">
         <v>3.39</v>
@@ -7425,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="C66" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
         <v>33</v>
@@ -7515,7 +7511,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="33.75">
+    <row r="67" spans="1:32" ht="14.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7523,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
         <v>33</v>
@@ -7594,8 +7590,8 @@
       <c r="Z67">
         <v>18280</v>
       </c>
-      <c r="AE67" s="4" t="s">
-        <v>90</v>
+      <c r="AE67" s="4">
+        <v>0</v>
       </c>
       <c r="AF67" t="s">
         <v>57</v>
@@ -7609,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="C68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
         <v>34</v>
@@ -7654,7 +7650,7 @@
         <v>134</v>
       </c>
       <c r="R68" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S68">
         <v>3.43</v>
@@ -7707,10 +7703,10 @@
         <v>-1</v>
       </c>
       <c r="C69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E69" t="s">
         <v>63</v>
@@ -7752,7 +7748,7 @@
         <v>183</v>
       </c>
       <c r="R69" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S69">
         <v>3.58</v>
@@ -7805,10 +7801,10 @@
         <v>-1</v>
       </c>
       <c r="C70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E70" t="s">
         <v>63</v>
@@ -7850,7 +7846,7 @@
         <v>183</v>
       </c>
       <c r="R70" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S70">
         <v>3.58</v>
@@ -7903,10 +7899,10 @@
         <v>0</v>
       </c>
       <c r="C71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E71" t="s">
         <v>63</v>
@@ -7915,7 +7911,7 @@
         <v>35</v>
       </c>
       <c r="G71" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H71" t="s">
         <v>37</v>
@@ -7948,7 +7944,7 @@
         <v>183</v>
       </c>
       <c r="R71" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S71">
         <v>3.58</v>
@@ -8001,10 +7997,10 @@
         <v>-1</v>
       </c>
       <c r="C72" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E72" t="s">
         <v>63</v>
@@ -8046,7 +8042,7 @@
         <v>183</v>
       </c>
       <c r="R72" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S72">
         <v>3.58</v>
@@ -8091,7 +8087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:32" ht="33.75">
+    <row r="73" spans="1:32" ht="14.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -8099,7 +8095,7 @@
         <v>-1</v>
       </c>
       <c r="C73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D73" t="s">
         <v>33</v>
@@ -8138,7 +8134,7 @@
         <v>46</v>
       </c>
       <c r="P73" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q73">
         <v>234</v>
@@ -8170,14 +8166,14 @@
       <c r="Z73">
         <v>34184</v>
       </c>
-      <c r="AE73" s="4" t="s">
-        <v>90</v>
+      <c r="AE73" s="4">
+        <v>0</v>
       </c>
       <c r="AF73" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:32" ht="33.75">
+    <row r="74" spans="1:32" ht="14.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8185,7 +8181,7 @@
         <v>3</v>
       </c>
       <c r="C74" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D74" t="s">
         <v>33</v>
@@ -8224,7 +8220,7 @@
         <v>46</v>
       </c>
       <c r="P74" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q74">
         <v>234</v>
@@ -8256,8 +8252,8 @@
       <c r="Z74">
         <v>35056</v>
       </c>
-      <c r="AE74" s="4" t="s">
-        <v>90</v>
+      <c r="AE74" s="4">
+        <v>0</v>
       </c>
       <c r="AF74" t="s">
         <v>42</v>
@@ -8271,7 +8267,7 @@
         <v>0</v>
       </c>
       <c r="C75" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D75" t="s">
         <v>33</v>
@@ -8310,7 +8306,7 @@
         <v>46</v>
       </c>
       <c r="P75" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q75">
         <v>308</v>
@@ -8369,7 +8365,7 @@
         <v>1</v>
       </c>
       <c r="C76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D76" t="s">
         <v>33</v>
@@ -8381,7 +8377,7 @@
         <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H76" t="s">
         <v>37</v>
@@ -8408,7 +8404,7 @@
         <v>46</v>
       </c>
       <c r="P76" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q76">
         <v>304</v>
@@ -8467,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D77" t="s">
         <v>33</v>
@@ -8565,7 +8561,7 @@
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
@@ -8663,7 +8659,7 @@
         <v>2</v>
       </c>
       <c r="C79" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D79" t="s">
         <v>33</v>
@@ -8761,7 +8757,7 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D80" t="s">
         <v>33</v>
@@ -8859,7 +8855,7 @@
         <v>1</v>
       </c>
       <c r="C81" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D81" t="s">
         <v>33</v>
@@ -8904,7 +8900,7 @@
         <v>98</v>
       </c>
       <c r="R81" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S81">
         <v>3.03</v>
@@ -8957,7 +8953,7 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D82" t="s">
         <v>33</v>
@@ -9002,7 +8998,7 @@
         <v>110</v>
       </c>
       <c r="R82" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S82">
         <v>3.17</v>
@@ -9055,7 +9051,7 @@
         <v>3</v>
       </c>
       <c r="C83" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D83" t="s">
         <v>33</v>
@@ -9153,7 +9149,7 @@
         <v>3</v>
       </c>
       <c r="C84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D84" t="s">
         <v>33</v>
@@ -9198,7 +9194,7 @@
         <v>156</v>
       </c>
       <c r="R84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S84">
         <v>3.58</v>
@@ -9251,7 +9247,7 @@
         <v>3</v>
       </c>
       <c r="C85" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D85" t="s">
         <v>33</v>
@@ -9296,7 +9292,7 @@
         <v>156</v>
       </c>
       <c r="R85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S85">
         <v>3.59</v>
@@ -9349,7 +9345,7 @@
         <v>3</v>
       </c>
       <c r="C86" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
@@ -9394,7 +9390,7 @@
         <v>156</v>
       </c>
       <c r="R86" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S86">
         <v>3.59</v>
@@ -9447,7 +9443,7 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D87" t="s">
         <v>33</v>
@@ -9545,7 +9541,7 @@
         <v>1</v>
       </c>
       <c r="C88" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
@@ -9643,7 +9639,7 @@
         <v>1</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
@@ -9688,7 +9684,7 @@
         <v>110</v>
       </c>
       <c r="R89" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S89">
         <v>3.17</v>
@@ -9741,7 +9737,7 @@
         <v>-1</v>
       </c>
       <c r="C90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D90" t="s">
         <v>33</v>
@@ -9786,7 +9782,7 @@
         <v>110</v>
       </c>
       <c r="R90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S90">
         <v>3.17</v>
@@ -9839,7 +9835,7 @@
         <v>1</v>
       </c>
       <c r="C91" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D91" t="s">
         <v>33</v>
@@ -9937,10 +9933,10 @@
         <v>1</v>
       </c>
       <c r="C92" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D92" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E92" t="s">
         <v>34</v>
@@ -9982,7 +9978,7 @@
         <v>103</v>
       </c>
       <c r="R92" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S92">
         <v>2.99</v>
@@ -10035,7 +10031,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D93" t="s">
         <v>33</v>
@@ -10125,7 +10121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="33.75">
+    <row r="94" spans="1:32" ht="14.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10133,7 +10129,7 @@
         <v>1</v>
       </c>
       <c r="C94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" t="s">
         <v>33</v>
@@ -10204,8 +10200,8 @@
       <c r="Z94">
         <v>6849</v>
       </c>
-      <c r="AE94" s="4" t="s">
-        <v>90</v>
+      <c r="AE94" s="4">
+        <v>0</v>
       </c>
       <c r="AF94" t="s">
         <v>53</v>
@@ -10219,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D95" t="s">
         <v>33</v>
@@ -10317,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D96" t="s">
         <v>33</v>
@@ -10415,7 +10411,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D97" t="s">
         <v>33</v>
@@ -10505,7 +10501,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="98" spans="1:32" ht="33.75">
+    <row r="98" spans="1:32" ht="14.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10513,7 +10509,7 @@
         <v>1</v>
       </c>
       <c r="C98" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" t="s">
         <v>33</v>
@@ -10584,8 +10580,8 @@
       <c r="Z98">
         <v>7499</v>
       </c>
-      <c r="AE98" s="4" t="s">
-        <v>90</v>
+      <c r="AE98" s="4">
+        <v>0</v>
       </c>
       <c r="AF98" t="s">
         <v>53</v>
@@ -10599,7 +10595,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D99" t="s">
         <v>33</v>
@@ -10689,7 +10685,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="33.75">
+    <row r="100" spans="1:32" ht="14.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10697,7 +10693,7 @@
         <v>2</v>
       </c>
       <c r="C100" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D100" t="s">
         <v>33</v>
@@ -10709,7 +10705,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H100" t="s">
         <v>51</v>
@@ -10768,8 +10764,8 @@
       <c r="Z100">
         <v>8249</v>
       </c>
-      <c r="AE100" s="4" t="s">
-        <v>90</v>
+      <c r="AE100" s="4">
+        <v>0</v>
       </c>
       <c r="AF100" t="s">
         <v>61</v>
@@ -10783,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D101" t="s">
         <v>33</v>
@@ -10881,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="C102" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
         <v>33</v>
@@ -10971,7 +10967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:32" ht="33.75">
+    <row r="103" spans="1:32" ht="14.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -10979,7 +10975,7 @@
         <v>0</v>
       </c>
       <c r="C103" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
         <v>33</v>
@@ -11050,14 +11046,14 @@
       <c r="Z103">
         <v>13499</v>
       </c>
-      <c r="AE103" s="4" t="s">
-        <v>90</v>
+      <c r="AE103" s="4">
+        <v>0</v>
       </c>
       <c r="AF103" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="104" spans="1:32" ht="33.75">
+    <row r="104" spans="1:32" ht="14.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11065,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="C104" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D104" t="s">
         <v>33</v>
@@ -11136,8 +11132,8 @@
       <c r="Z104">
         <v>14399</v>
       </c>
-      <c r="AE104" s="4" t="s">
-        <v>90</v>
+      <c r="AE104" s="4">
+        <v>0</v>
       </c>
       <c r="AF104" t="s">
         <v>61</v>
@@ -11151,7 +11147,7 @@
         <v>0</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D105" t="s">
         <v>33</v>
@@ -11249,7 +11245,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D106" t="s">
         <v>33</v>
@@ -11347,7 +11343,7 @@
         <v>3</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D107" t="s">
         <v>33</v>
@@ -11437,7 +11433,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="108" spans="1:32" ht="33.75">
+    <row r="108" spans="1:32" ht="14.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11445,7 +11441,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D108" t="s">
         <v>33</v>
@@ -11516,8 +11512,8 @@
       <c r="Z108">
         <v>18399</v>
       </c>
-      <c r="AE108" s="4" t="s">
-        <v>90</v>
+      <c r="AE108" s="4">
+        <v>0</v>
       </c>
       <c r="AF108" t="s">
         <v>48</v>
@@ -11531,7 +11527,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D109" t="s">
         <v>33</v>
@@ -11629,10 +11625,10 @@
         <v>0</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D110" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E110" t="s">
         <v>63</v>
@@ -11674,7 +11670,7 @@
         <v>152</v>
       </c>
       <c r="R110" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S110">
         <v>3.7</v>
@@ -11727,7 +11723,7 @@
         <v>0</v>
       </c>
       <c r="C111" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D111" t="s">
         <v>33</v>
@@ -11825,10 +11821,10 @@
         <v>0</v>
       </c>
       <c r="C112" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D112" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112" t="s">
         <v>63</v>
@@ -11870,7 +11866,7 @@
         <v>152</v>
       </c>
       <c r="R112" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S112">
         <v>3.7</v>
@@ -11923,7 +11919,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D113" t="s">
         <v>33</v>
@@ -12021,10 +12017,10 @@
         <v>0</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D114" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E114" t="s">
         <v>63</v>
@@ -12066,7 +12062,7 @@
         <v>152</v>
       </c>
       <c r="R114" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S114">
         <v>3.7</v>
@@ -12119,7 +12115,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D115" t="s">
         <v>33</v>
@@ -12217,10 +12213,10 @@
         <v>0</v>
       </c>
       <c r="C116" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D116" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E116" t="s">
         <v>63</v>
@@ -12262,7 +12258,7 @@
         <v>152</v>
       </c>
       <c r="R116" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S116">
         <v>3.7</v>
@@ -12315,7 +12311,7 @@
         <v>0</v>
       </c>
       <c r="C117" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D117" t="s">
         <v>33</v>
@@ -12413,10 +12409,10 @@
         <v>0</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E118" t="s">
         <v>63</v>
@@ -12458,7 +12454,7 @@
         <v>152</v>
       </c>
       <c r="R118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S118">
         <v>3.7</v>
@@ -12511,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="C119" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D119" t="s">
         <v>33</v>
@@ -12609,7 +12605,7 @@
         <v>1</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D120" t="s">
         <v>33</v>
@@ -12707,7 +12703,7 @@
         <v>1</v>
       </c>
       <c r="C121" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D121" t="s">
         <v>33</v>
@@ -12752,7 +12748,7 @@
         <v>98</v>
       </c>
       <c r="R121" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S121">
         <v>3.03</v>
@@ -12805,7 +12801,7 @@
         <v>1</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D122" t="s">
         <v>33</v>
@@ -12903,7 +12899,7 @@
         <v>1</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D123" t="s">
         <v>33</v>
@@ -13001,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D124" t="s">
         <v>33</v>
@@ -13099,7 +13095,7 @@
         <v>-1</v>
       </c>
       <c r="C125" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D125" t="s">
         <v>33</v>
@@ -13197,7 +13193,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D126" t="s">
         <v>33</v>
@@ -13242,7 +13238,7 @@
         <v>156</v>
       </c>
       <c r="R126" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="S126">
         <v>3.59</v>
@@ -13295,7 +13291,7 @@
         <v>3</v>
       </c>
       <c r="C127" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D127" t="s">
         <v>33</v>
@@ -13393,7 +13389,7 @@
         <v>3</v>
       </c>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D128" t="s">
         <v>33</v>
@@ -13405,13 +13401,13 @@
         <v>35</v>
       </c>
       <c r="G128" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H128" t="s">
         <v>37</v>
       </c>
       <c r="I128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J128">
         <v>89.5</v>
@@ -13429,7 +13425,7 @@
         <v>2756</v>
       </c>
       <c r="O128" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P128" t="s">
         <v>47</v>
@@ -13491,7 +13487,7 @@
         <v>3</v>
       </c>
       <c r="C129" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D129" t="s">
         <v>33</v>
@@ -13503,13 +13499,13 @@
         <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H129" t="s">
         <v>37</v>
       </c>
       <c r="I129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J129">
         <v>89.5</v>
@@ -13527,7 +13523,7 @@
         <v>2756</v>
       </c>
       <c r="O129" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P129" t="s">
         <v>47</v>
@@ -13589,7 +13585,7 @@
         <v>3</v>
       </c>
       <c r="C130" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D130" t="s">
         <v>33</v>
@@ -13607,7 +13603,7 @@
         <v>37</v>
       </c>
       <c r="I130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J130">
         <v>89.5</v>
@@ -13625,7 +13621,7 @@
         <v>2800</v>
       </c>
       <c r="O130" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P130" t="s">
         <v>47</v>
@@ -13687,7 +13683,7 @@
         <v>1</v>
       </c>
       <c r="C131" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D131" t="s">
         <v>33</v>
@@ -13723,10 +13719,10 @@
         <v>3366</v>
       </c>
       <c r="O131" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P131" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q131">
         <v>203</v>
@@ -13777,7 +13773,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="132" spans="1:32" ht="33.75">
+    <row r="132" spans="1:32" ht="14.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13785,7 +13781,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D132" t="s">
         <v>33</v>
@@ -13856,8 +13852,8 @@
       <c r="Z132">
         <v>9295</v>
       </c>
-      <c r="AE132" s="4" t="s">
-        <v>90</v>
+      <c r="AE132" s="4">
+        <v>0</v>
       </c>
       <c r="AF132" t="s">
         <v>61</v>
@@ -13871,7 +13867,7 @@
         <v>2</v>
       </c>
       <c r="C133" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D133" t="s">
         <v>33</v>
@@ -13969,7 +13965,7 @@
         <v>3</v>
       </c>
       <c r="C134" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D134" t="s">
         <v>33</v>
@@ -14067,7 +14063,7 @@
         <v>2</v>
       </c>
       <c r="C135" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D135" t="s">
         <v>33</v>
@@ -14165,7 +14161,7 @@
         <v>3</v>
       </c>
       <c r="C136" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D136" t="s">
         <v>33</v>
@@ -14263,7 +14259,7 @@
         <v>2</v>
       </c>
       <c r="C137" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" t="s">
         <v>33</v>
@@ -14361,7 +14357,7 @@
         <v>3</v>
       </c>
       <c r="C138" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D138" t="s">
         <v>33</v>
@@ -14459,7 +14455,7 @@
         <v>2</v>
       </c>
       <c r="C139" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D139" t="s">
         <v>33</v>
@@ -14557,7 +14553,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D140" t="s">
         <v>33</v>
@@ -14593,7 +14589,7 @@
         <v>2050</v>
       </c>
       <c r="O140" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P140" t="s">
         <v>40</v>
@@ -14655,7 +14651,7 @@
         <v>2</v>
       </c>
       <c r="C141" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D141" t="s">
         <v>33</v>
@@ -14691,7 +14687,7 @@
         <v>2120</v>
       </c>
       <c r="O141" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P141" t="s">
         <v>40</v>
@@ -14753,7 +14749,7 @@
         <v>2</v>
       </c>
       <c r="C142" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D142" t="s">
         <v>33</v>
@@ -14789,7 +14785,7 @@
         <v>2240</v>
       </c>
       <c r="O142" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P142" t="s">
         <v>40</v>
@@ -14851,7 +14847,7 @@
         <v>0</v>
       </c>
       <c r="C143" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D143" t="s">
         <v>33</v>
@@ -14887,7 +14883,7 @@
         <v>2145</v>
       </c>
       <c r="O143" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P143" t="s">
         <v>40</v>
@@ -14949,7 +14945,7 @@
         <v>0</v>
       </c>
       <c r="C144" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D144" t="s">
         <v>33</v>
@@ -14985,7 +14981,7 @@
         <v>2190</v>
       </c>
       <c r="O144" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P144" t="s">
         <v>40</v>
@@ -15047,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="C145" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D145" t="s">
         <v>33</v>
@@ -15083,7 +15079,7 @@
         <v>2340</v>
       </c>
       <c r="O145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P145" t="s">
         <v>40</v>
@@ -15145,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D146" t="s">
         <v>33</v>
@@ -15181,7 +15177,7 @@
         <v>2385</v>
       </c>
       <c r="O146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P146" t="s">
         <v>40</v>
@@ -15243,7 +15239,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D147" t="s">
         <v>33</v>
@@ -15279,7 +15275,7 @@
         <v>2510</v>
       </c>
       <c r="O147" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P147" t="s">
         <v>40</v>
@@ -15341,7 +15337,7 @@
         <v>0</v>
       </c>
       <c r="C148" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D148" t="s">
         <v>33</v>
@@ -15377,7 +15373,7 @@
         <v>2290</v>
       </c>
       <c r="O148" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P148" t="s">
         <v>40</v>
@@ -15439,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="C149" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D149" t="s">
         <v>33</v>
@@ -15475,7 +15471,7 @@
         <v>2455</v>
       </c>
       <c r="O149" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P149" t="s">
         <v>40</v>
@@ -15537,7 +15533,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D150" t="s">
         <v>33</v>
@@ -15573,7 +15569,7 @@
         <v>2420</v>
       </c>
       <c r="O150" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P150" t="s">
         <v>40</v>
@@ -15635,7 +15631,7 @@
         <v>0</v>
       </c>
       <c r="C151" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D151" t="s">
         <v>33</v>
@@ -15671,7 +15667,7 @@
         <v>2650</v>
       </c>
       <c r="O151" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P151" t="s">
         <v>40</v>
@@ -15733,7 +15729,7 @@
         <v>1</v>
       </c>
       <c r="C152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D152" t="s">
         <v>33</v>
@@ -15831,7 +15827,7 @@
         <v>1</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D153" t="s">
         <v>33</v>
@@ -15929,7 +15925,7 @@
         <v>1</v>
       </c>
       <c r="C154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D154" t="s">
         <v>33</v>
@@ -16027,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="C155" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D155" t="s">
         <v>33</v>
@@ -16125,7 +16121,7 @@
         <v>0</v>
       </c>
       <c r="C156" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D156" t="s">
         <v>33</v>
@@ -16223,7 +16219,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D157" t="s">
         <v>33</v>
@@ -16321,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="C158" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D158" t="s">
         <v>33</v>
@@ -16419,7 +16415,7 @@
         <v>0</v>
       </c>
       <c r="C159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D159" t="s">
         <v>33</v>
@@ -16517,10 +16513,10 @@
         <v>0</v>
       </c>
       <c r="C160" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E160" t="s">
         <v>34</v>
@@ -16562,7 +16558,7 @@
         <v>110</v>
       </c>
       <c r="R160" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S160">
         <v>3.27</v>
@@ -16615,10 +16611,10 @@
         <v>0</v>
       </c>
       <c r="C161" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D161" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E161" t="s">
         <v>34</v>
@@ -16660,7 +16656,7 @@
         <v>110</v>
       </c>
       <c r="R161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S161">
         <v>3.27</v>
@@ -16713,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="C162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D162" t="s">
         <v>33</v>
@@ -16811,7 +16807,7 @@
         <v>0</v>
       </c>
       <c r="C163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D163" t="s">
         <v>33</v>
@@ -16909,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="C164" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D164" t="s">
         <v>33</v>
@@ -17007,7 +17003,7 @@
         <v>1</v>
       </c>
       <c r="C165" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D165" t="s">
         <v>33</v>
@@ -17105,7 +17101,7 @@
         <v>1</v>
       </c>
       <c r="C166" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D166" t="s">
         <v>33</v>
@@ -17203,7 +17199,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D167" t="s">
         <v>33</v>
@@ -17301,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="C168" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D168" t="s">
         <v>33</v>
@@ -17399,7 +17395,7 @@
         <v>2</v>
       </c>
       <c r="C169" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D169" t="s">
         <v>33</v>
@@ -17411,7 +17407,7 @@
         <v>35</v>
       </c>
       <c r="G169" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H169" t="s">
         <v>37</v>
@@ -17497,7 +17493,7 @@
         <v>2</v>
       </c>
       <c r="C170" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D170" t="s">
         <v>33</v>
@@ -17509,7 +17505,7 @@
         <v>35</v>
       </c>
       <c r="G170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H170" t="s">
         <v>37</v>
@@ -17595,7 +17591,7 @@
         <v>2</v>
       </c>
       <c r="C171" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D171" t="s">
         <v>33</v>
@@ -17693,7 +17689,7 @@
         <v>2</v>
       </c>
       <c r="C172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D172" t="s">
         <v>33</v>
@@ -17705,7 +17701,7 @@
         <v>35</v>
       </c>
       <c r="G172" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H172" t="s">
         <v>37</v>
@@ -17791,7 +17787,7 @@
         <v>2</v>
       </c>
       <c r="C173" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D173" t="s">
         <v>33</v>
@@ -17889,7 +17885,7 @@
         <v>2</v>
       </c>
       <c r="C174" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D174" t="s">
         <v>33</v>
@@ -17987,7 +17983,7 @@
         <v>-1</v>
       </c>
       <c r="C175" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D175" t="s">
         <v>33</v>
@@ -18085,10 +18081,10 @@
         <v>-1</v>
       </c>
       <c r="C176" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E176" t="s">
         <v>63</v>
@@ -18130,7 +18126,7 @@
         <v>110</v>
       </c>
       <c r="R176" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S176">
         <v>3.27</v>
@@ -18183,7 +18179,7 @@
         <v>-1</v>
       </c>
       <c r="C177" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D177" t="s">
         <v>33</v>
@@ -18281,7 +18277,7 @@
         <v>-1</v>
       </c>
       <c r="C178" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D178" t="s">
         <v>33</v>
@@ -18379,7 +18375,7 @@
         <v>-1</v>
       </c>
       <c r="C179" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D179" t="s">
         <v>33</v>
@@ -18477,7 +18473,7 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D180" t="s">
         <v>33</v>
@@ -18575,7 +18571,7 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D181" t="s">
         <v>33</v>
@@ -18673,7 +18669,7 @@
         <v>-1</v>
       </c>
       <c r="C182" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D182" t="s">
         <v>33</v>
@@ -18771,7 +18767,7 @@
         <v>-1</v>
       </c>
       <c r="C183" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D183" t="s">
         <v>33</v>
@@ -18869,10 +18865,10 @@
         <v>2</v>
       </c>
       <c r="C184" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D184" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E184" t="s">
         <v>34</v>
@@ -18914,7 +18910,7 @@
         <v>97</v>
       </c>
       <c r="R184" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S184">
         <v>3.01</v>
@@ -18967,7 +18963,7 @@
         <v>2</v>
       </c>
       <c r="C185" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D185" t="s">
         <v>33</v>
@@ -19065,10 +19061,10 @@
         <v>2</v>
       </c>
       <c r="C186" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D186" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E186" t="s">
         <v>34</v>
@@ -19110,7 +19106,7 @@
         <v>97</v>
       </c>
       <c r="R186" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S186">
         <v>3.01</v>
@@ -19163,7 +19159,7 @@
         <v>2</v>
       </c>
       <c r="C187" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D187" t="s">
         <v>33</v>
@@ -19261,7 +19257,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D188" t="s">
         <v>33</v>
@@ -19359,10 +19355,10 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D189" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E189" t="s">
         <v>63</v>
@@ -19404,7 +19400,7 @@
         <v>97</v>
       </c>
       <c r="R189" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S189">
         <v>3.01</v>
@@ -19457,7 +19453,7 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D190" t="s">
         <v>33</v>
@@ -19555,7 +19551,7 @@
         <v>3</v>
       </c>
       <c r="C191" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D191" t="s">
         <v>33</v>
@@ -19653,7 +19649,7 @@
         <v>3</v>
       </c>
       <c r="C192" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D192" t="s">
         <v>33</v>
@@ -19751,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="C193" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D193" t="s">
         <v>33</v>
@@ -19849,10 +19845,10 @@
         <v>0</v>
       </c>
       <c r="C194" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D194" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E194" t="s">
         <v>63</v>
@@ -19894,7 +19890,7 @@
         <v>97</v>
       </c>
       <c r="R194" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S194">
         <v>3.01</v>
@@ -19947,7 +19943,7 @@
         <v>0</v>
       </c>
       <c r="C195" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D195" t="s">
         <v>33</v>
@@ -20045,7 +20041,7 @@
         <v>-2</v>
       </c>
       <c r="C196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D196" t="s">
         <v>33</v>
@@ -20143,7 +20139,7 @@
         <v>-1</v>
       </c>
       <c r="C197" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D197" t="s">
         <v>33</v>
@@ -20241,7 +20237,7 @@
         <v>-2</v>
       </c>
       <c r="C198" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D198" t="s">
         <v>33</v>
@@ -20339,7 +20335,7 @@
         <v>-1</v>
       </c>
       <c r="C199" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D199" t="s">
         <v>33</v>
@@ -20437,7 +20433,7 @@
         <v>-2</v>
       </c>
       <c r="C200" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D200" t="s">
         <v>33</v>
@@ -20535,7 +20531,7 @@
         <v>-1</v>
       </c>
       <c r="C201" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D201" t="s">
         <v>33</v>
@@ -20633,7 +20629,7 @@
         <v>-1</v>
       </c>
       <c r="C202" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D202" t="s">
         <v>33</v>
@@ -20731,7 +20727,7 @@
         <v>-1</v>
       </c>
       <c r="C203" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D203" t="s">
         <v>33</v>
@@ -20829,7 +20825,7 @@
         <v>-1</v>
       </c>
       <c r="C204" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D204" t="s">
         <v>33</v>
@@ -20927,10 +20923,10 @@
         <v>-1</v>
       </c>
       <c r="C205" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D205" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E205" t="s">
         <v>63</v>
@@ -20972,7 +20968,7 @@
         <v>145</v>
       </c>
       <c r="R205" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S205">
         <v>3.01</v>
@@ -21025,7 +21021,7 @@
         <v>-1</v>
       </c>
       <c r="C206" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D206" t="s">
         <v>33</v>
